--- a/03_ips_clean/09_data_web/02_fb.xlsx
+++ b/03_ips_clean/09_data_web/02_fb.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -438,10 +438,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>63.6271531580235</v>
+        <v>66.3631096108389</v>
       </c>
       <c r="C2" t="n">
-        <v>66.4516277465576</v>
+        <v>67.8166725635491</v>
       </c>
       <c r="D2" t="n">
-        <v>71.1877812699657</v>
+        <v>73.8236193330567</v>
       </c>
       <c r="E2" t="n">
-        <v>71.5645938310773</v>
+        <v>75.4663945260453</v>
       </c>
       <c r="F2" t="n">
-        <v>61.4537865456719</v>
+        <v>63.7392427403685</v>
       </c>
       <c r="G2" t="n">
-        <v>63.136258683164</v>
+        <v>64.7746660953712</v>
       </c>
       <c r="H2" t="n">
-        <v>65.4959707428006</v>
+        <v>67.3046439479624</v>
       </c>
       <c r="I2" t="n">
-        <v>54.0684142373107</v>
+        <v>58.5833384884976</v>
       </c>
       <c r="J2" t="n">
-        <v>63.217278039267</v>
+        <v>67.3019698999445</v>
       </c>
       <c r="K2" t="n">
-        <v>73.2922957001836</v>
+        <v>73.23181475817</v>
       </c>
       <c r="L2" t="n">
-        <v>61.8821546801544</v>
+        <v>65.5050849576315</v>
       </c>
       <c r="M2" t="n">
-        <v>63.0358493941406</v>
+        <v>65.4108838682566</v>
       </c>
       <c r="N2" t="n">
-        <v>54.6939805385196</v>
+        <v>56.5779837856406</v>
       </c>
       <c r="O2" t="n">
-        <v>61.4898641328044</v>
+        <v>64.7653180993769</v>
       </c>
       <c r="P2" t="n">
-        <v>67.6321092508369</v>
+        <v>70.3203097727078</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.5527398815244</v>
+        <v>70.2073334509341</v>
       </c>
       <c r="R2" t="n">
-        <v>58.5396395324496</v>
+        <v>61.4687550943611</v>
       </c>
       <c r="S2" t="n">
-        <v>63.3279029445111</v>
+        <v>65.3650026411212</v>
       </c>
       <c r="T2" t="n">
-        <v>61.9293796541418</v>
+        <v>64.7199926965663</v>
       </c>
       <c r="U2" t="n">
-        <v>68.199883798188</v>
+        <v>71.1278222631534</v>
       </c>
       <c r="V2" t="n">
-        <v>55.4747097130782</v>
+        <v>58.9692194772676</v>
       </c>
       <c r="W2" t="n">
-        <v>60.9711409529189</v>
+        <v>63.188110569471</v>
       </c>
       <c r="X2" t="n">
-        <v>69.5095451426049</v>
+        <v>72.8893598255688</v>
       </c>
       <c r="Y2" t="n">
-        <v>68.1575992879411</v>
+        <v>72.4963371923253</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.9368909456519</v>
+        <v>61.4568406768629</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.8278930250763</v>
+        <v>69.3148592087237</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.2331090460845</v>
+        <v>69.4969190827087</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.7881153634144</v>
+        <v>60.8434018852471</v>
       </c>
       <c r="AD2" t="n">
-        <v>62.5357308147227</v>
+        <v>65.6695576170569</v>
       </c>
       <c r="AE2" t="n">
-        <v>62.2347841359054</v>
+        <v>64.9702765665132</v>
       </c>
       <c r="AF2" t="n">
-        <v>56.8783154572687</v>
+        <v>59.1573037945186</v>
       </c>
       <c r="AG2" t="n">
-        <v>62.8928786926843</v>
+        <v>63.9478543664808</v>
       </c>
       <c r="AH2" t="n">
-        <v>58.8892898901628</v>
+        <v>61.2455904977842</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>64.0842581060305</v>
+        <v>66.1341617828216</v>
       </c>
       <c r="C3" t="n">
-        <v>66.8200414945886</v>
+        <v>68.5229482816883</v>
       </c>
       <c r="D3" t="n">
-        <v>71.6346694303313</v>
+        <v>73.712252283488</v>
       </c>
       <c r="E3" t="n">
-        <v>70.584481332265</v>
+        <v>73.8459205574774</v>
       </c>
       <c r="F3" t="n">
-        <v>59.4660233981146</v>
+        <v>60.9197737313147</v>
       </c>
       <c r="G3" t="n">
-        <v>63.9883506534555</v>
+        <v>65.2872705707621</v>
       </c>
       <c r="H3" t="n">
-        <v>65.7915610700524</v>
+        <v>67.3247947654795</v>
       </c>
       <c r="I3" t="n">
-        <v>55.6724316997442</v>
+        <v>59.9593292361522</v>
       </c>
       <c r="J3" t="n">
-        <v>64.4910260141628</v>
+        <v>67.5959353791876</v>
       </c>
       <c r="K3" t="n">
-        <v>74.3098367898789</v>
+        <v>72.1614518440457</v>
       </c>
       <c r="L3" t="n">
-        <v>63.8488969322004</v>
+        <v>67.0216011330343</v>
       </c>
       <c r="M3" t="n">
-        <v>62.3549155375345</v>
+        <v>64.3156354194256</v>
       </c>
       <c r="N3" t="n">
-        <v>56.3987833162815</v>
+        <v>57.4898736631623</v>
       </c>
       <c r="O3" t="n">
-        <v>64.494894727416</v>
+        <v>67.3228679965633</v>
       </c>
       <c r="P3" t="n">
-        <v>67.2540893458427</v>
+        <v>70.2634284958328</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.3098795101242</v>
+        <v>69.9202582472909</v>
       </c>
       <c r="R3" t="n">
-        <v>60.2452078847908</v>
+        <v>62.9237815067816</v>
       </c>
       <c r="S3" t="n">
-        <v>64.1856381269355</v>
+        <v>65.3512287173513</v>
       </c>
       <c r="T3" t="n">
-        <v>63.352769755992</v>
+        <v>65.3038051860842</v>
       </c>
       <c r="U3" t="n">
-        <v>68.303816161142</v>
+        <v>70.6975452559175</v>
       </c>
       <c r="V3" t="n">
-        <v>55.1092740819196</v>
+        <v>57.28006095181</v>
       </c>
       <c r="W3" t="n">
-        <v>61.8712188059944</v>
+        <v>63.3434686992217</v>
       </c>
       <c r="X3" t="n">
-        <v>69.3728451013107</v>
+        <v>71.851328644238</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.0218920622708</v>
+        <v>73.1090110191681</v>
       </c>
       <c r="Z3" t="n">
-        <v>62.1540795479619</v>
+        <v>62.5998231474705</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.7573958222014</v>
+        <v>69.3499246698968</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.8725677019415</v>
+        <v>69.7010108112084</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.357323366054</v>
+        <v>60.674745455794</v>
       </c>
       <c r="AD3" t="n">
-        <v>62.6663972464425</v>
+        <v>65.9222514956803</v>
       </c>
       <c r="AE3" t="n">
-        <v>63.2706751447252</v>
+        <v>64.4629310646186</v>
       </c>
       <c r="AF3" t="n">
-        <v>54.3981336280863</v>
+        <v>55.2100751214862</v>
       </c>
       <c r="AG3" t="n">
-        <v>63.6087823587154</v>
+        <v>64.3702170496618</v>
       </c>
       <c r="AH3" t="n">
-        <v>60.2444292203054</v>
+        <v>61.7552658614874</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>63.5750869929693</v>
+        <v>65.4850733510855</v>
       </c>
       <c r="C4" t="n">
-        <v>65.4178787477066</v>
+        <v>67.1611067146621</v>
       </c>
       <c r="D4" t="n">
-        <v>70.6530086642172</v>
+        <v>73.1644754013996</v>
       </c>
       <c r="E4" t="n">
-        <v>70.8585266534917</v>
+        <v>74.0637366888008</v>
       </c>
       <c r="F4" t="n">
-        <v>60.7796690141895</v>
+        <v>61.3553674518713</v>
       </c>
       <c r="G4" t="n">
-        <v>63.1649982430741</v>
+        <v>63.8615689201304</v>
       </c>
       <c r="H4" t="n">
-        <v>65.0727803353723</v>
+        <v>66.7580112330179</v>
       </c>
       <c r="I4" t="n">
-        <v>54.5376829736934</v>
+        <v>58.8333887900793</v>
       </c>
       <c r="J4" t="n">
-        <v>64.5548372150982</v>
+        <v>67.7119626523128</v>
       </c>
       <c r="K4" t="n">
-        <v>74.4233354110922</v>
+        <v>73.1066648588722</v>
       </c>
       <c r="L4" t="n">
-        <v>62.2782820293653</v>
+        <v>64.7732168690843</v>
       </c>
       <c r="M4" t="n">
-        <v>62.7366262880033</v>
+        <v>64.4338113839986</v>
       </c>
       <c r="N4" t="n">
-        <v>55.7808067739456</v>
+        <v>57.2385102218235</v>
       </c>
       <c r="O4" t="n">
-        <v>62.3417827779161</v>
+        <v>64.5539166899951</v>
       </c>
       <c r="P4" t="n">
-        <v>66.3554755981467</v>
+        <v>69.3388649187917</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.8666449461825</v>
+        <v>68.7270278092699</v>
       </c>
       <c r="R4" t="n">
-        <v>59.9066178135002</v>
+        <v>61.9185089266613</v>
       </c>
       <c r="S4" t="n">
-        <v>63.0672084195542</v>
+        <v>64.3871432462144</v>
       </c>
       <c r="T4" t="n">
-        <v>59.8557962431731</v>
+        <v>62.7614769661713</v>
       </c>
       <c r="U4" t="n">
-        <v>68.1191062475773</v>
+        <v>70.3270973049637</v>
       </c>
       <c r="V4" t="n">
-        <v>56.9639785298257</v>
+        <v>56.5941307821635</v>
       </c>
       <c r="W4" t="n">
-        <v>60.1986358146477</v>
+        <v>61.7122807797161</v>
       </c>
       <c r="X4" t="n">
-        <v>69.3571816577177</v>
+        <v>72.3398919332402</v>
       </c>
       <c r="Y4" t="n">
-        <v>68.8967827471557</v>
+        <v>72.9058843800446</v>
       </c>
       <c r="Z4" t="n">
-        <v>60.3582350610665</v>
+        <v>60.5232303095256</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.4718763206557</v>
+        <v>68.1374204037923</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.7552862947502</v>
+        <v>69.5441836942077</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.6101960794645</v>
+        <v>59.1408894607572</v>
       </c>
       <c r="AD4" t="n">
-        <v>61.8447541776799</v>
+        <v>64.9469940823756</v>
       </c>
       <c r="AE4" t="n">
-        <v>61.7814770425796</v>
+        <v>63.1494780491354</v>
       </c>
       <c r="AF4" t="n">
-        <v>54.5586729462021</v>
+        <v>56.5379986919814</v>
       </c>
       <c r="AG4" t="n">
-        <v>64.2543239731915</v>
+        <v>64.6884768337148</v>
       </c>
       <c r="AH4" t="n">
-        <v>59.4555140675105</v>
+        <v>61.9854446110564</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>63.5573222886179</v>
+        <v>66.3147031385265</v>
       </c>
       <c r="C5" t="n">
-        <v>67.0372005808974</v>
+        <v>69.7342464241782</v>
       </c>
       <c r="D5" t="n">
-        <v>70.1035622801538</v>
+        <v>73.2932912144759</v>
       </c>
       <c r="E5" t="n">
-        <v>69.753517857083</v>
+        <v>73.0710181586631</v>
       </c>
       <c r="F5" t="n">
-        <v>58.9904263025077</v>
+        <v>60.7642171504506</v>
       </c>
       <c r="G5" t="n">
-        <v>63.1812965532446</v>
+        <v>65.5721591828379</v>
       </c>
       <c r="H5" t="n">
-        <v>64.8885026309897</v>
+        <v>66.6183963532373</v>
       </c>
       <c r="I5" t="n">
-        <v>56.1100243578808</v>
+        <v>60.8072516213875</v>
       </c>
       <c r="J5" t="n">
-        <v>64.6547664688553</v>
+        <v>68.800776999698</v>
       </c>
       <c r="K5" t="n">
-        <v>74.4126338133086</v>
+        <v>74.0790570983991</v>
       </c>
       <c r="L5" t="n">
-        <v>62.3978001493898</v>
+        <v>66.6903283615373</v>
       </c>
       <c r="M5" t="n">
-        <v>62.3033571479466</v>
+        <v>65.3104147756059</v>
       </c>
       <c r="N5" t="n">
-        <v>55.9680096249623</v>
+        <v>57.4065095695318</v>
       </c>
       <c r="O5" t="n">
-        <v>62.3837972266584</v>
+        <v>65.0569309555577</v>
       </c>
       <c r="P5" t="n">
-        <v>67.0757865987645</v>
+        <v>71.1737302453999</v>
       </c>
       <c r="Q5" t="n">
-        <v>67.0727029028538</v>
+        <v>69.3221675913708</v>
       </c>
       <c r="R5" t="n">
-        <v>60.9860011087626</v>
+        <v>63.6862169260609</v>
       </c>
       <c r="S5" t="n">
-        <v>64.1579283261711</v>
+        <v>65.9674838847525</v>
       </c>
       <c r="T5" t="n">
-        <v>61.0489839318909</v>
+        <v>64.4040895016665</v>
       </c>
       <c r="U5" t="n">
-        <v>68.3678002854635</v>
+        <v>71.9770910350021</v>
       </c>
       <c r="V5" t="n">
-        <v>55.9426679818702</v>
+        <v>58.7008110775265</v>
       </c>
       <c r="W5" t="n">
-        <v>60.7796977326029</v>
+        <v>62.8591695529461</v>
       </c>
       <c r="X5" t="n">
-        <v>69.45125826064</v>
+        <v>73.142519049248</v>
       </c>
       <c r="Y5" t="n">
-        <v>69.7931672751796</v>
+        <v>74.323420692197</v>
       </c>
       <c r="Z5" t="n">
-        <v>59.7051656509523</v>
+        <v>60.9941543255172</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.3630209232223</v>
+        <v>68.7130179657149</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.2008843790064</v>
+        <v>69.8833505575072</v>
       </c>
       <c r="AC5" t="n">
-        <v>56.6154242269644</v>
+        <v>58.224049561578</v>
       </c>
       <c r="AD5" t="n">
-        <v>62.0599387330629</v>
+        <v>66.0122343655088</v>
       </c>
       <c r="AE5" t="n">
-        <v>63.3714251409898</v>
+        <v>65.1382861453316</v>
       </c>
       <c r="AF5" t="n">
-        <v>53.6963057661537</v>
+        <v>56.2416091977428</v>
       </c>
       <c r="AG5" t="n">
-        <v>63.9569820024372</v>
+        <v>65.7217714309872</v>
       </c>
       <c r="AH5" t="n">
-        <v>59.7688145015577</v>
+        <v>62.8835334432757</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>63.3212509622887</v>
+        <v>65.8287936902398</v>
       </c>
       <c r="C6" t="n">
-        <v>67.1521102011593</v>
+        <v>69.8990657083568</v>
       </c>
       <c r="D6" t="n">
-        <v>70.2308105878548</v>
+        <v>73.4977389306614</v>
       </c>
       <c r="E6" t="n">
-        <v>69.8376350730343</v>
+        <v>73.0248305215998</v>
       </c>
       <c r="F6" t="n">
-        <v>57.6131469200674</v>
+        <v>59.4427890648619</v>
       </c>
       <c r="G6" t="n">
-        <v>62.640287194534</v>
+        <v>64.8317877232352</v>
       </c>
       <c r="H6" t="n">
-        <v>62.8149852188332</v>
+        <v>65.5887493933814</v>
       </c>
       <c r="I6" t="n">
-        <v>55.8724357336174</v>
+        <v>60.6762611440279</v>
       </c>
       <c r="J6" t="n">
-        <v>64.4764535509622</v>
+        <v>68.2304476746528</v>
       </c>
       <c r="K6" t="n">
-        <v>74.7509616575427</v>
+        <v>74.4909383192236</v>
       </c>
       <c r="L6" t="n">
-        <v>62.2710001413918</v>
+        <v>66.2815904950687</v>
       </c>
       <c r="M6" t="n">
-        <v>62.1733270129716</v>
+        <v>64.5459444529859</v>
       </c>
       <c r="N6" t="n">
-        <v>54.8564850741905</v>
+        <v>56.7337690544741</v>
       </c>
       <c r="O6" t="n">
-        <v>62.4159580552842</v>
+        <v>64.7746130523155</v>
       </c>
       <c r="P6" t="n">
-        <v>66.9909046577963</v>
+        <v>71.0734325449677</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.6257083803178</v>
+        <v>68.409068195448</v>
       </c>
       <c r="R6" t="n">
-        <v>60.3838168438452</v>
+        <v>62.4930727138202</v>
       </c>
       <c r="S6" t="n">
-        <v>63.3987174523371</v>
+        <v>65.3287099575589</v>
       </c>
       <c r="T6" t="n">
-        <v>60.0684411249216</v>
+        <v>63.7435739750305</v>
       </c>
       <c r="U6" t="n">
-        <v>69.2608854296851</v>
+        <v>72.704048753334</v>
       </c>
       <c r="V6" t="n">
-        <v>56.0414849497229</v>
+        <v>55.5954624148117</v>
       </c>
       <c r="W6" t="n">
-        <v>60.214170085673</v>
+        <v>62.3811232040761</v>
       </c>
       <c r="X6" t="n">
-        <v>69.65019306105</v>
+        <v>72.7233927856885</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.6367763645601</v>
+        <v>74.9964043694419</v>
       </c>
       <c r="Z6" t="n">
-        <v>59.3267191430143</v>
+        <v>60.7607122212393</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.865446686052</v>
+        <v>68.8104275361347</v>
       </c>
       <c r="AB6" t="n">
-        <v>65.7568482618254</v>
+        <v>69.5480959550953</v>
       </c>
       <c r="AC6" t="n">
-        <v>55.8403124209598</v>
+        <v>57.2721818848906</v>
       </c>
       <c r="AD6" t="n">
-        <v>61.792117481444</v>
+        <v>65.8038783761743</v>
       </c>
       <c r="AE6" t="n">
-        <v>63.6850410906481</v>
+        <v>65.3769166852618</v>
       </c>
       <c r="AF6" t="n">
-        <v>52.80734750274</v>
+        <v>54.7131250645295</v>
       </c>
       <c r="AG6" t="n">
-        <v>64.2108020528242</v>
+        <v>66.0490142619091</v>
       </c>
       <c r="AH6" t="n">
-        <v>59.8315443770446</v>
+        <v>63.2226823099003</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,207 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>60.9154061180199</v>
+        <v>62.2268065616321</v>
       </c>
       <c r="C7" t="n">
-        <v>67.1491074659442</v>
+        <v>68.8960802453453</v>
       </c>
       <c r="D7" t="n">
-        <v>68.417727558236</v>
+        <v>69.8331711669067</v>
       </c>
       <c r="E7" t="n">
-        <v>69.9304781295613</v>
+        <v>71.2039189826325</v>
       </c>
       <c r="F7" t="n">
-        <v>54.7272967099615</v>
+        <v>56.2695377993628</v>
       </c>
       <c r="G7" t="n">
-        <v>60.1593668354215</v>
+        <v>60.1118896581574</v>
       </c>
       <c r="H7" t="n">
-        <v>61.6540971879709</v>
+        <v>63.6311777895257</v>
       </c>
       <c r="I7" t="n">
-        <v>52.2143529754589</v>
+        <v>55.5955577106022</v>
       </c>
       <c r="J7" t="n">
-        <v>62.2853905222491</v>
+        <v>64.7428999936519</v>
       </c>
       <c r="K7" t="n">
-        <v>71.3906935033305</v>
+        <v>67.7774911412095</v>
       </c>
       <c r="L7" t="n">
-        <v>61.4096039173771</v>
+        <v>64.1494422575775</v>
       </c>
       <c r="M7" t="n">
-        <v>59.9868149191222</v>
+        <v>61.5770251986874</v>
       </c>
       <c r="N7" t="n">
-        <v>53.2574220385855</v>
+        <v>54.5261375632094</v>
       </c>
       <c r="O7" t="n">
-        <v>62.1206739679011</v>
+        <v>63.2463246867181</v>
       </c>
       <c r="P7" t="n">
-        <v>65.0789919622846</v>
+        <v>68.7718596195774</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.4283603818813</v>
+        <v>63.687821366083</v>
       </c>
       <c r="R7" t="n">
-        <v>57.1389763808427</v>
+        <v>58.662132950572</v>
       </c>
       <c r="S7" t="n">
-        <v>60.5087762552345</v>
+        <v>61.5003190136669</v>
       </c>
       <c r="T7" t="n">
-        <v>59.283099108736</v>
+        <v>61.7999445553631</v>
       </c>
       <c r="U7" t="n">
-        <v>68.9080235734384</v>
+        <v>71.2185296818099</v>
       </c>
       <c r="V7" t="n">
-        <v>51.5861201485263</v>
+        <v>52.5965289297169</v>
       </c>
       <c r="W7" t="n">
-        <v>57.1016574853181</v>
+        <v>57.6016943359079</v>
       </c>
       <c r="X7" t="n">
-        <v>69.8855617704441</v>
+        <v>71.5044398036128</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.4794697275013</v>
+        <v>71.3228188538549</v>
       </c>
       <c r="Z7" t="n">
-        <v>56.5089425010763</v>
+        <v>56.8223669701278</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.5213664160921</v>
+        <v>66.9252639343243</v>
       </c>
       <c r="AB7" t="n">
-        <v>62.9736608380653</v>
+        <v>66.2233611844378</v>
       </c>
       <c r="AC7" t="n">
-        <v>53.4935230867625</v>
+        <v>54.7213006399914</v>
       </c>
       <c r="AD7" t="n">
-        <v>60.4089883472746</v>
+        <v>63.1432642940494</v>
       </c>
       <c r="AE7" t="n">
-        <v>60.0869856176779</v>
+        <v>61.151789405736</v>
       </c>
       <c r="AF7" t="n">
-        <v>49.2064281437241</v>
+        <v>50.6005715687288</v>
       </c>
       <c r="AG7" t="n">
-        <v>62.537004362581</v>
+        <v>63.6086024023177</v>
       </c>
       <c r="AH7" t="n">
-        <v>59.1396313243296</v>
+        <v>61.5654098908038</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="n">
+        <v>63.4179502932175</v>
+      </c>
+      <c r="C8" t="n">
+        <v>70.1991018762093</v>
+      </c>
+      <c r="D8" t="n">
+        <v>71.8558201286974</v>
+      </c>
+      <c r="E8" t="n">
+        <v>71.6481710619214</v>
+      </c>
+      <c r="F8" t="n">
+        <v>58.886064995826</v>
+      </c>
+      <c r="G8" t="n">
+        <v>62.1878385118665</v>
+      </c>
+      <c r="H8" t="n">
+        <v>62.0403297828553</v>
+      </c>
+      <c r="I8" t="n">
+        <v>54.6804220113585</v>
+      </c>
+      <c r="J8" t="n">
+        <v>69.0015683713285</v>
+      </c>
+      <c r="K8" t="n">
+        <v>73.1862751097192</v>
+      </c>
+      <c r="L8" t="n">
+        <v>65.4063000277675</v>
+      </c>
+      <c r="M8" t="n">
+        <v>61.8605237293672</v>
+      </c>
+      <c r="N8" t="n">
+        <v>56.3498596578104</v>
+      </c>
+      <c r="O8" t="n">
+        <v>64.3386486593024</v>
+      </c>
+      <c r="P8" t="n">
+        <v>70.2636983139867</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>63.3948341952751</v>
+      </c>
+      <c r="R8" t="n">
+        <v>58.249602261711</v>
+      </c>
+      <c r="S8" t="n">
+        <v>61.9568507663667</v>
+      </c>
+      <c r="T8" t="n">
+        <v>61.9060888766721</v>
+      </c>
+      <c r="U8" t="n">
+        <v>72.1947672494569</v>
+      </c>
+      <c r="V8" t="n">
+        <v>51.3612916896411</v>
+      </c>
+      <c r="W8" t="n">
+        <v>56.9755282142033</v>
+      </c>
+      <c r="X8" t="n">
+        <v>71.8284187998162</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>72.9331073694987</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>59.5406985277375</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>69.3126209375345</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>67.0330285662049</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>57.8426367213778</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>66.1809342503414</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>62.1387255854942</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>50.9201754309382</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>68.3533434838788</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>62.6205471208692</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/02_fb.xlsx
+++ b/03_ips_clean/09_data_web/02_fb.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>66.3631096108389</v>
+        <v>68.6518486335108</v>
       </c>
       <c r="C2" t="n">
-        <v>67.8166725635491</v>
+        <v>70.9766862151629</v>
       </c>
       <c r="D2" t="n">
-        <v>73.8236193330567</v>
+        <v>74.8203231935084</v>
       </c>
       <c r="E2" t="n">
-        <v>75.4663945260453</v>
+        <v>75.7053248875015</v>
       </c>
       <c r="F2" t="n">
-        <v>63.7392427403685</v>
+        <v>64.6476705728511</v>
       </c>
       <c r="G2" t="n">
-        <v>64.7746660953712</v>
+        <v>67.3353180681604</v>
       </c>
       <c r="H2" t="n">
-        <v>67.3046439479624</v>
+        <v>69.5825807529477</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5833384884976</v>
+        <v>64.1669499242902</v>
       </c>
       <c r="J2" t="n">
-        <v>67.3019698999445</v>
+        <v>72.5707364846116</v>
       </c>
       <c r="K2" t="n">
-        <v>73.23181475817</v>
+        <v>77.7016318034043</v>
       </c>
       <c r="L2" t="n">
-        <v>65.5050849576315</v>
+        <v>65.9501617256655</v>
       </c>
       <c r="M2" t="n">
-        <v>65.4108838682566</v>
+        <v>68.1234993369947</v>
       </c>
       <c r="N2" t="n">
-        <v>56.5779837856406</v>
+        <v>59.475165862204</v>
       </c>
       <c r="O2" t="n">
-        <v>64.7653180993769</v>
+        <v>66.143647294166</v>
       </c>
       <c r="P2" t="n">
-        <v>70.3203097727078</v>
+        <v>71.5150410634885</v>
       </c>
       <c r="Q2" t="n">
-        <v>70.2073334509341</v>
+        <v>73.6844475960878</v>
       </c>
       <c r="R2" t="n">
-        <v>61.4687550943611</v>
+        <v>62.6967249056383</v>
       </c>
       <c r="S2" t="n">
-        <v>65.3650026411212</v>
+        <v>67.5953694858492</v>
       </c>
       <c r="T2" t="n">
-        <v>64.7199926965663</v>
+        <v>65.6449186106245</v>
       </c>
       <c r="U2" t="n">
-        <v>71.1278222631534</v>
+        <v>70.5977081938599</v>
       </c>
       <c r="V2" t="n">
-        <v>58.9692194772676</v>
+        <v>60.0759132332095</v>
       </c>
       <c r="W2" t="n">
-        <v>63.188110569471</v>
+        <v>64.9856332855268</v>
       </c>
       <c r="X2" t="n">
-        <v>72.8893598255688</v>
+        <v>74.2498836130468</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.4963371923253</v>
+        <v>75.0049181553861</v>
       </c>
       <c r="Z2" t="n">
-        <v>61.4568406768629</v>
+        <v>64.873572081603</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.3148592087237</v>
+        <v>70.361175928157</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.4969190827087</v>
+        <v>70.7530200868178</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.8434018852471</v>
+        <v>65.2939332538601</v>
       </c>
       <c r="AD2" t="n">
-        <v>65.6695576170569</v>
+        <v>68.1809200186437</v>
       </c>
       <c r="AE2" t="n">
-        <v>64.9702765665132</v>
+        <v>68.5859065365681</v>
       </c>
       <c r="AF2" t="n">
-        <v>59.1573037945186</v>
+        <v>60.8602002767759</v>
       </c>
       <c r="AG2" t="n">
-        <v>63.9478543664808</v>
+        <v>62.3243324166771</v>
       </c>
       <c r="AH2" t="n">
-        <v>61.2455904977842</v>
+        <v>62.7440256608883</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>66.1341617828216</v>
+        <v>68.6169398278219</v>
       </c>
       <c r="C3" t="n">
-        <v>68.5229482816883</v>
+        <v>71.8413248857191</v>
       </c>
       <c r="D3" t="n">
-        <v>73.712252283488</v>
+        <v>75.0706893959336</v>
       </c>
       <c r="E3" t="n">
-        <v>73.8459205574774</v>
+        <v>74.7121977712402</v>
       </c>
       <c r="F3" t="n">
-        <v>60.9197737313147</v>
+        <v>63.0683237315863</v>
       </c>
       <c r="G3" t="n">
-        <v>65.2872705707621</v>
+        <v>67.6001094021538</v>
       </c>
       <c r="H3" t="n">
-        <v>67.3247947654795</v>
+        <v>70.3209143098674</v>
       </c>
       <c r="I3" t="n">
-        <v>59.9593292361522</v>
+        <v>64.3969631863947</v>
       </c>
       <c r="J3" t="n">
-        <v>67.5959353791876</v>
+        <v>73.079831693641</v>
       </c>
       <c r="K3" t="n">
-        <v>72.1614518440457</v>
+        <v>76.9025216752506</v>
       </c>
       <c r="L3" t="n">
-        <v>67.0216011330343</v>
+        <v>67.372179661658</v>
       </c>
       <c r="M3" t="n">
-        <v>64.3156354194256</v>
+        <v>66.8530343928001</v>
       </c>
       <c r="N3" t="n">
-        <v>57.4898736631623</v>
+        <v>60.2687639474745</v>
       </c>
       <c r="O3" t="n">
-        <v>67.3228679965633</v>
+        <v>67.6606103539761</v>
       </c>
       <c r="P3" t="n">
-        <v>70.2634284958328</v>
+        <v>72.3065656040107</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.9202582472909</v>
+        <v>73.6523440174145</v>
       </c>
       <c r="R3" t="n">
-        <v>62.9237815067816</v>
+        <v>65.5715920567543</v>
       </c>
       <c r="S3" t="n">
-        <v>65.3512287173513</v>
+        <v>68.8290629134473</v>
       </c>
       <c r="T3" t="n">
-        <v>65.3038051860842</v>
+        <v>66.6188568312941</v>
       </c>
       <c r="U3" t="n">
-        <v>70.6975452559175</v>
+        <v>70.856187543352</v>
       </c>
       <c r="V3" t="n">
-        <v>57.28006095181</v>
+        <v>58.3214542618775</v>
       </c>
       <c r="W3" t="n">
-        <v>63.3434686992217</v>
+        <v>65.7590813754151</v>
       </c>
       <c r="X3" t="n">
-        <v>71.851328644238</v>
+        <v>73.8507062018458</v>
       </c>
       <c r="Y3" t="n">
-        <v>73.1090110191681</v>
+        <v>74.6974561781918</v>
       </c>
       <c r="Z3" t="n">
-        <v>62.5998231474705</v>
+        <v>65.3641716959017</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.3499246698968</v>
+        <v>70.5331663964708</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.7010108112084</v>
+        <v>70.626959170663</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.674745455794</v>
+        <v>64.4720318176071</v>
       </c>
       <c r="AD3" t="n">
-        <v>65.9222514956803</v>
+        <v>68.7761442991164</v>
       </c>
       <c r="AE3" t="n">
-        <v>64.4629310646186</v>
+        <v>69.1354294663915</v>
       </c>
       <c r="AF3" t="n">
-        <v>55.2100751214862</v>
+        <v>57.4889095510125</v>
       </c>
       <c r="AG3" t="n">
-        <v>64.3702170496618</v>
+        <v>62.7177534545268</v>
       </c>
       <c r="AH3" t="n">
-        <v>61.7552658614874</v>
+        <v>63.3830619453215</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>65.4850733510855</v>
+        <v>68.0719736812187</v>
       </c>
       <c r="C4" t="n">
-        <v>67.1611067146621</v>
+        <v>70.175396035712</v>
       </c>
       <c r="D4" t="n">
-        <v>73.1644754013996</v>
+        <v>74.8111596827869</v>
       </c>
       <c r="E4" t="n">
-        <v>74.0637366888008</v>
+        <v>74.5870181118874</v>
       </c>
       <c r="F4" t="n">
-        <v>61.3553674518713</v>
+        <v>63.4635220302036</v>
       </c>
       <c r="G4" t="n">
-        <v>63.8615689201304</v>
+        <v>66.4188686887101</v>
       </c>
       <c r="H4" t="n">
-        <v>66.7580112330179</v>
+        <v>69.4051548008259</v>
       </c>
       <c r="I4" t="n">
-        <v>58.8333887900793</v>
+        <v>62.7049030219484</v>
       </c>
       <c r="J4" t="n">
-        <v>67.7119626523128</v>
+        <v>73.2166693655709</v>
       </c>
       <c r="K4" t="n">
-        <v>73.1066648588722</v>
+        <v>77.7340066849313</v>
       </c>
       <c r="L4" t="n">
-        <v>64.7732168690843</v>
+        <v>65.3693478304951</v>
       </c>
       <c r="M4" t="n">
-        <v>64.4338113839986</v>
+        <v>67.9238057755983</v>
       </c>
       <c r="N4" t="n">
-        <v>57.2385102218235</v>
+        <v>59.8168412740701</v>
       </c>
       <c r="O4" t="n">
-        <v>64.5539166899951</v>
+        <v>65.6019484803959</v>
       </c>
       <c r="P4" t="n">
-        <v>69.3388649187917</v>
+        <v>71.7915286618401</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.7270278092699</v>
+        <v>72.6683060753749</v>
       </c>
       <c r="R4" t="n">
-        <v>61.9185089266613</v>
+        <v>63.4961209445151</v>
       </c>
       <c r="S4" t="n">
-        <v>64.3871432462144</v>
+        <v>67.9200459760398</v>
       </c>
       <c r="T4" t="n">
-        <v>62.7614769661713</v>
+        <v>63.5688599262715</v>
       </c>
       <c r="U4" t="n">
-        <v>70.3270973049637</v>
+        <v>70.981363130609</v>
       </c>
       <c r="V4" t="n">
-        <v>56.5941307821635</v>
+        <v>58.6961326678005</v>
       </c>
       <c r="W4" t="n">
-        <v>61.7122807797161</v>
+        <v>65.0312598813931</v>
       </c>
       <c r="X4" t="n">
-        <v>72.3398919332402</v>
+        <v>74.2387127020357</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.9058843800446</v>
+        <v>73.832288046444</v>
       </c>
       <c r="Z4" t="n">
-        <v>60.5232303095256</v>
+        <v>64.6115793221621</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.1374204037923</v>
+        <v>68.7915446554755</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.5441836942077</v>
+        <v>71.5169166579531</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.1408894607572</v>
+        <v>64.1732683851739</v>
       </c>
       <c r="AD4" t="n">
-        <v>64.9469940823756</v>
+        <v>68.1857112588645</v>
       </c>
       <c r="AE4" t="n">
-        <v>63.1494780491354</v>
+        <v>67.6835970130361</v>
       </c>
       <c r="AF4" t="n">
-        <v>56.5379986919814</v>
+        <v>57.3429606221827</v>
       </c>
       <c r="AG4" t="n">
-        <v>64.6884768337148</v>
+        <v>62.6235654654092</v>
       </c>
       <c r="AH4" t="n">
-        <v>61.9854446110564</v>
+        <v>63.156997198315</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>66.3147031385265</v>
+        <v>68.2451475106928</v>
       </c>
       <c r="C5" t="n">
-        <v>69.7342464241782</v>
+        <v>72.5611834142109</v>
       </c>
       <c r="D5" t="n">
-        <v>73.2932912144759</v>
+        <v>74.6540817960783</v>
       </c>
       <c r="E5" t="n">
-        <v>73.0710181586631</v>
+        <v>75.1688450745823</v>
       </c>
       <c r="F5" t="n">
-        <v>60.7642171504506</v>
+        <v>61.413449611871</v>
       </c>
       <c r="G5" t="n">
-        <v>65.5721591828379</v>
+        <v>67.5945107408066</v>
       </c>
       <c r="H5" t="n">
-        <v>66.6183963532373</v>
+        <v>68.1759101167332</v>
       </c>
       <c r="I5" t="n">
-        <v>60.8072516213875</v>
+        <v>64.3927925523739</v>
       </c>
       <c r="J5" t="n">
-        <v>68.800776999698</v>
+        <v>70.5892293030858</v>
       </c>
       <c r="K5" t="n">
-        <v>74.0790570983991</v>
+        <v>77.7016116834281</v>
       </c>
       <c r="L5" t="n">
-        <v>66.6903283615373</v>
+        <v>67.6460015114063</v>
       </c>
       <c r="M5" t="n">
-        <v>65.3104147756059</v>
+        <v>68.2654184423737</v>
       </c>
       <c r="N5" t="n">
-        <v>57.4065095695318</v>
+        <v>58.095296262519</v>
       </c>
       <c r="O5" t="n">
-        <v>65.0569309555577</v>
+        <v>64.8922127819116</v>
       </c>
       <c r="P5" t="n">
-        <v>71.1737302453999</v>
+        <v>73.4468069143808</v>
       </c>
       <c r="Q5" t="n">
-        <v>69.3221675913708</v>
+        <v>72.4539941112147</v>
       </c>
       <c r="R5" t="n">
-        <v>63.6862169260609</v>
+        <v>64.6910242280016</v>
       </c>
       <c r="S5" t="n">
-        <v>65.9674838847525</v>
+        <v>68.6957512663851</v>
       </c>
       <c r="T5" t="n">
-        <v>64.4040895016665</v>
+        <v>64.3686777430518</v>
       </c>
       <c r="U5" t="n">
-        <v>71.9770910350021</v>
+        <v>73.3373542107866</v>
       </c>
       <c r="V5" t="n">
-        <v>58.7008110775265</v>
+        <v>59.3841014002693</v>
       </c>
       <c r="W5" t="n">
-        <v>62.8591695529461</v>
+        <v>65.2853561588652</v>
       </c>
       <c r="X5" t="n">
-        <v>73.142519049248</v>
+        <v>75.5468784101631</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.323420692197</v>
+        <v>77.9431871285193</v>
       </c>
       <c r="Z5" t="n">
-        <v>60.9941543255172</v>
+        <v>63.2730669922985</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.7130179657149</v>
+        <v>68.0583804502227</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.8833505575072</v>
+        <v>70.2249233240017</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.224049561578</v>
+        <v>60.8996251411683</v>
       </c>
       <c r="AD5" t="n">
-        <v>66.0122343655088</v>
+        <v>68.7539725154979</v>
       </c>
       <c r="AE5" t="n">
-        <v>65.1382861453316</v>
+        <v>68.7482741005785</v>
       </c>
       <c r="AF5" t="n">
-        <v>56.2416091977428</v>
+        <v>55.9661207929126</v>
       </c>
       <c r="AG5" t="n">
-        <v>65.7217714309872</v>
+        <v>65.0192205731439</v>
       </c>
       <c r="AH5" t="n">
-        <v>62.8835334432757</v>
+        <v>63.841315800446</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>65.8287936902398</v>
+        <v>68.014155609101</v>
       </c>
       <c r="C6" t="n">
-        <v>69.8990657083568</v>
+        <v>72.238695288106</v>
       </c>
       <c r="D6" t="n">
-        <v>73.4977389306614</v>
+        <v>74.75405951257</v>
       </c>
       <c r="E6" t="n">
-        <v>73.0248305215998</v>
+        <v>74.6152897986806</v>
       </c>
       <c r="F6" t="n">
-        <v>59.4427890648619</v>
+        <v>60.9031034874811</v>
       </c>
       <c r="G6" t="n">
-        <v>64.8317877232352</v>
+        <v>67.1779515045071</v>
       </c>
       <c r="H6" t="n">
-        <v>65.5887493933814</v>
+        <v>67.8557290008951</v>
       </c>
       <c r="I6" t="n">
-        <v>60.6762611440279</v>
+        <v>64.3880982600049</v>
       </c>
       <c r="J6" t="n">
-        <v>68.2304476746528</v>
+        <v>70.1095012662398</v>
       </c>
       <c r="K6" t="n">
-        <v>74.4909383192236</v>
+        <v>77.8665549936045</v>
       </c>
       <c r="L6" t="n">
-        <v>66.2815904950687</v>
+        <v>66.6526565396778</v>
       </c>
       <c r="M6" t="n">
-        <v>64.5459444529859</v>
+        <v>67.8191009302446</v>
       </c>
       <c r="N6" t="n">
-        <v>56.7337690544741</v>
+        <v>57.6919043460198</v>
       </c>
       <c r="O6" t="n">
-        <v>64.7746130523155</v>
+        <v>64.9636382951368</v>
       </c>
       <c r="P6" t="n">
-        <v>71.0734325449677</v>
+        <v>73.1582394893685</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.409068195448</v>
+        <v>72.3461234308572</v>
       </c>
       <c r="R6" t="n">
-        <v>62.4930727138202</v>
+        <v>64.6278985211359</v>
       </c>
       <c r="S6" t="n">
-        <v>65.3287099575589</v>
+        <v>67.4981851673957</v>
       </c>
       <c r="T6" t="n">
-        <v>63.7435739750305</v>
+        <v>63.9550806355374</v>
       </c>
       <c r="U6" t="n">
-        <v>72.704048753334</v>
+        <v>73.2301912834983</v>
       </c>
       <c r="V6" t="n">
-        <v>55.5954624148117</v>
+        <v>58.7271696165048</v>
       </c>
       <c r="W6" t="n">
-        <v>62.3811232040761</v>
+        <v>65.1344115894581</v>
       </c>
       <c r="X6" t="n">
-        <v>72.7233927856885</v>
+        <v>75.7446702179335</v>
       </c>
       <c r="Y6" t="n">
-        <v>74.9964043694419</v>
+        <v>78.3688649297853</v>
       </c>
       <c r="Z6" t="n">
-        <v>60.7607122212393</v>
+        <v>63.4643364784017</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.8104275361347</v>
+        <v>67.8710835677809</v>
       </c>
       <c r="AB6" t="n">
-        <v>69.5480959550953</v>
+        <v>69.7649496479603</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.2721818848906</v>
+        <v>60.5244247221794</v>
       </c>
       <c r="AD6" t="n">
-        <v>65.8038783761743</v>
+        <v>68.7877400608748</v>
       </c>
       <c r="AE6" t="n">
-        <v>65.3769166852618</v>
+        <v>68.7968730360647</v>
       </c>
       <c r="AF6" t="n">
-        <v>54.7131250645295</v>
+        <v>54.7495080144527</v>
       </c>
       <c r="AG6" t="n">
-        <v>66.0490142619091</v>
+        <v>64.8122139109537</v>
       </c>
       <c r="AH6" t="n">
-        <v>63.2226823099003</v>
+        <v>63.9316959735327</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>62.2268065616321</v>
+        <v>63.6849156289239</v>
       </c>
       <c r="C7" t="n">
-        <v>68.8960802453453</v>
+        <v>70.3395188418352</v>
       </c>
       <c r="D7" t="n">
-        <v>69.8331711669067</v>
+        <v>70.4073802719978</v>
       </c>
       <c r="E7" t="n">
-        <v>71.2039189826325</v>
+        <v>72.1631422052336</v>
       </c>
       <c r="F7" t="n">
-        <v>56.2695377993628</v>
+        <v>55.8490714801374</v>
       </c>
       <c r="G7" t="n">
-        <v>60.1118896581574</v>
+        <v>62.6614483794615</v>
       </c>
       <c r="H7" t="n">
-        <v>63.6311777895257</v>
+        <v>64.8298919494717</v>
       </c>
       <c r="I7" t="n">
-        <v>55.5955577106022</v>
+        <v>59.003943392165</v>
       </c>
       <c r="J7" t="n">
-        <v>64.7428999936519</v>
+        <v>64.3890490041914</v>
       </c>
       <c r="K7" t="n">
-        <v>67.7774911412095</v>
+        <v>73.3108041120714</v>
       </c>
       <c r="L7" t="n">
-        <v>64.1494422575775</v>
+        <v>63.5478001143788</v>
       </c>
       <c r="M7" t="n">
-        <v>61.5770251986874</v>
+        <v>63.5210296429775</v>
       </c>
       <c r="N7" t="n">
-        <v>54.5261375632094</v>
+        <v>57.5741714666099</v>
       </c>
       <c r="O7" t="n">
-        <v>63.2463246867181</v>
+        <v>62.5600276129551</v>
       </c>
       <c r="P7" t="n">
-        <v>68.7718596195774</v>
+        <v>69.6441909506152</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.687821366083</v>
+        <v>65.3625768676776</v>
       </c>
       <c r="R7" t="n">
-        <v>58.662132950572</v>
+        <v>60.0994882793713</v>
       </c>
       <c r="S7" t="n">
-        <v>61.5003190136669</v>
+        <v>62.5931292342662</v>
       </c>
       <c r="T7" t="n">
-        <v>61.7999445553631</v>
+        <v>62.5640340356448</v>
       </c>
       <c r="U7" t="n">
-        <v>71.2185296818099</v>
+        <v>70.325293420763</v>
       </c>
       <c r="V7" t="n">
-        <v>52.5965289297169</v>
+        <v>53.8264900712052</v>
       </c>
       <c r="W7" t="n">
-        <v>57.6016943359079</v>
+        <v>61.4067925467542</v>
       </c>
       <c r="X7" t="n">
-        <v>71.5044398036128</v>
+        <v>73.0839285222775</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.3228188538549</v>
+        <v>73.7888661180019</v>
       </c>
       <c r="Z7" t="n">
-        <v>56.8223669701278</v>
+        <v>58.3316980891525</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.9252639343243</v>
+        <v>65.7181057626392</v>
       </c>
       <c r="AB7" t="n">
-        <v>66.2233611844378</v>
+        <v>64.1996681809457</v>
       </c>
       <c r="AC7" t="n">
-        <v>54.7213006399914</v>
+        <v>57.388334143374</v>
       </c>
       <c r="AD7" t="n">
-        <v>63.1432642940494</v>
+        <v>64.4612300241141</v>
       </c>
       <c r="AE7" t="n">
-        <v>61.151789405736</v>
+        <v>63.340422861366</v>
       </c>
       <c r="AF7" t="n">
-        <v>50.6005715687288</v>
+        <v>51.5193300473087</v>
       </c>
       <c r="AG7" t="n">
-        <v>63.6086024023177</v>
+        <v>62.0252641404922</v>
       </c>
       <c r="AH7" t="n">
-        <v>61.5654098908038</v>
+        <v>60.2197687366642</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,207 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>63.4179502932175</v>
+        <v>63.4287180117826</v>
       </c>
       <c r="C8" t="n">
-        <v>70.1991018762093</v>
+        <v>70.7115040708724</v>
       </c>
       <c r="D8" t="n">
-        <v>71.8558201286974</v>
+        <v>71.5598880857893</v>
       </c>
       <c r="E8" t="n">
-        <v>71.6481710619214</v>
+        <v>70.1751985217247</v>
       </c>
       <c r="F8" t="n">
-        <v>58.886064995826</v>
+        <v>56.7567762044295</v>
       </c>
       <c r="G8" t="n">
-        <v>62.1878385118665</v>
+        <v>64.4784130540672</v>
       </c>
       <c r="H8" t="n">
-        <v>62.0403297828553</v>
+        <v>61.6118719654748</v>
       </c>
       <c r="I8" t="n">
-        <v>54.6804220113585</v>
+        <v>57.0957565016648</v>
       </c>
       <c r="J8" t="n">
-        <v>69.0015683713285</v>
+        <v>68.6440344019345</v>
       </c>
       <c r="K8" t="n">
-        <v>73.1862751097192</v>
+        <v>77.0288940357402</v>
       </c>
       <c r="L8" t="n">
-        <v>65.4063000277675</v>
+        <v>63.3821236658093</v>
       </c>
       <c r="M8" t="n">
-        <v>61.8605237293672</v>
+        <v>62.6040562998555</v>
       </c>
       <c r="N8" t="n">
-        <v>56.3498596578104</v>
+        <v>57.2879599625421</v>
       </c>
       <c r="O8" t="n">
-        <v>64.3386486593024</v>
+        <v>61.5463742078902</v>
       </c>
       <c r="P8" t="n">
-        <v>70.2636983139867</v>
+        <v>70.2395691543517</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.3948341952751</v>
+        <v>63.8375306321695</v>
       </c>
       <c r="R8" t="n">
-        <v>58.249602261711</v>
+        <v>57.0504644093175</v>
       </c>
       <c r="S8" t="n">
-        <v>61.9568507663667</v>
+        <v>60.7280821144143</v>
       </c>
       <c r="T8" t="n">
-        <v>61.9060888766721</v>
+        <v>61.3342794266245</v>
       </c>
       <c r="U8" t="n">
-        <v>72.1947672494569</v>
+        <v>70.1655680629891</v>
       </c>
       <c r="V8" t="n">
-        <v>51.3612916896411</v>
+        <v>51.1823507149749</v>
       </c>
       <c r="W8" t="n">
-        <v>56.9755282142033</v>
+        <v>58.1939525806318</v>
       </c>
       <c r="X8" t="n">
-        <v>71.8284187998162</v>
+        <v>71.2901925074797</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.9331073694987</v>
+        <v>73.3630772142665</v>
       </c>
       <c r="Z8" t="n">
-        <v>59.5406985277375</v>
+        <v>59.9557343558804</v>
       </c>
       <c r="AA8" t="n">
-        <v>69.3126209375345</v>
+        <v>66.1291749773678</v>
       </c>
       <c r="AB8" t="n">
-        <v>67.0330285662049</v>
+        <v>64.134408957222</v>
       </c>
       <c r="AC8" t="n">
-        <v>57.8426367213778</v>
+        <v>58.1396002085086</v>
       </c>
       <c r="AD8" t="n">
-        <v>66.1809342503414</v>
+        <v>65.9282115199216</v>
       </c>
       <c r="AE8" t="n">
-        <v>62.1387255854942</v>
+        <v>62.5828802129996</v>
       </c>
       <c r="AF8" t="n">
-        <v>50.9201754309382</v>
+        <v>50.8667567441272</v>
       </c>
       <c r="AG8" t="n">
-        <v>68.3533434838788</v>
+        <v>65.1986060441145</v>
       </c>
       <c r="AH8" t="n">
-        <v>62.6205471208692</v>
+        <v>59.4552183355721</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="n">
+        <v>66.2322933985472</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72.3649791636567</v>
+      </c>
+      <c r="D9" t="n">
+        <v>73.6217650811686</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72.3022718322053</v>
+      </c>
+      <c r="F9" t="n">
+        <v>59.4381372939933</v>
+      </c>
+      <c r="G9" t="n">
+        <v>65.3375351942383</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64.5457044800589</v>
+      </c>
+      <c r="I9" t="n">
+        <v>61.8683665924743</v>
+      </c>
+      <c r="J9" t="n">
+        <v>68.7913681031303</v>
+      </c>
+      <c r="K9" t="n">
+        <v>78.8977825484192</v>
+      </c>
+      <c r="L9" t="n">
+        <v>65.9305317894066</v>
+      </c>
+      <c r="M9" t="n">
+        <v>66.2995732066322</v>
+      </c>
+      <c r="N9" t="n">
+        <v>58.4180098822367</v>
+      </c>
+      <c r="O9" t="n">
+        <v>62.3553985695401</v>
+      </c>
+      <c r="P9" t="n">
+        <v>71.7806636990037</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>69.2218717306584</v>
+      </c>
+      <c r="R9" t="n">
+        <v>63.8530028058791</v>
+      </c>
+      <c r="S9" t="n">
+        <v>64.8622480650991</v>
+      </c>
+      <c r="T9" t="n">
+        <v>62.4320943470132</v>
+      </c>
+      <c r="U9" t="n">
+        <v>71.2840220666173</v>
+      </c>
+      <c r="V9" t="n">
+        <v>57.3402269862057</v>
+      </c>
+      <c r="W9" t="n">
+        <v>63.4941056668973</v>
+      </c>
+      <c r="X9" t="n">
+        <v>72.9636473228483</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>75.919747932998</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>62.1759170048551</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>67.7913962860366</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>65.7240389065595</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>61.7594361542221</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>67.2884294878983</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>67.5496580022638</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>53.740452820106</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>65.4797851932254</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>63.2475130875751</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/02_fb.xlsx
+++ b/03_ips_clean/09_data_web/02_fb.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>68.6518486335108</v>
+        <v>60.0423132406522</v>
       </c>
       <c r="C2" t="n">
-        <v>70.9766862151629</v>
+        <v>66.8984852323921</v>
       </c>
       <c r="D2" t="n">
-        <v>74.8203231935084</v>
+        <v>68.1882456220035</v>
       </c>
       <c r="E2" t="n">
-        <v>75.7053248875015</v>
+        <v>67.3488214941157</v>
       </c>
       <c r="F2" t="n">
-        <v>64.6476705728511</v>
+        <v>58.7922644251535</v>
       </c>
       <c r="G2" t="n">
-        <v>67.3353180681604</v>
+        <v>61.8236690705724</v>
       </c>
       <c r="H2" t="n">
-        <v>69.5825807529477</v>
+        <v>63.7930360929536</v>
       </c>
       <c r="I2" t="n">
-        <v>64.1669499242902</v>
+        <v>50.5823001269478</v>
       </c>
       <c r="J2" t="n">
-        <v>72.5707364846116</v>
+        <v>61.3912322112859</v>
       </c>
       <c r="K2" t="n">
-        <v>77.7016318034043</v>
+        <v>68.7446925561847</v>
       </c>
       <c r="L2" t="n">
-        <v>65.9501617256655</v>
+        <v>59.041932367349</v>
       </c>
       <c r="M2" t="n">
-        <v>68.1234993369947</v>
+        <v>59.2389026620247</v>
       </c>
       <c r="N2" t="n">
-        <v>59.475165862204</v>
+        <v>49.8738035630805</v>
       </c>
       <c r="O2" t="n">
-        <v>66.143647294166</v>
+        <v>57.4787769982708</v>
       </c>
       <c r="P2" t="n">
-        <v>71.5150410634885</v>
+        <v>64.8723606685754</v>
       </c>
       <c r="Q2" t="n">
-        <v>73.6844475960878</v>
+        <v>60.9765238862722</v>
       </c>
       <c r="R2" t="n">
-        <v>62.6967249056383</v>
+        <v>55.1163824403974</v>
       </c>
       <c r="S2" t="n">
-        <v>67.5953694858492</v>
+        <v>59.3129613529179</v>
       </c>
       <c r="T2" t="n">
-        <v>65.6449186106245</v>
+        <v>60.1336314280145</v>
       </c>
       <c r="U2" t="n">
-        <v>70.5977081938599</v>
+        <v>67.2115408018978</v>
       </c>
       <c r="V2" t="n">
-        <v>60.0759132332095</v>
+        <v>50.056400768187</v>
       </c>
       <c r="W2" t="n">
-        <v>64.9856332855268</v>
+        <v>56.7182083151089</v>
       </c>
       <c r="X2" t="n">
-        <v>74.2498836130468</v>
+        <v>67.5159004647643</v>
       </c>
       <c r="Y2" t="n">
-        <v>75.0049181553861</v>
+        <v>64.8525280939973</v>
       </c>
       <c r="Z2" t="n">
-        <v>64.873572081603</v>
+        <v>61.0698268635395</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.361175928157</v>
+        <v>62.5167037022075</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.7530200868178</v>
+        <v>65.1147316639651</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.2939332538601</v>
+        <v>54.6435432367832</v>
       </c>
       <c r="AD2" t="n">
-        <v>68.1809200186437</v>
+        <v>60.2443816566791</v>
       </c>
       <c r="AE2" t="n">
-        <v>68.5859065365681</v>
+        <v>59.0018442676248</v>
       </c>
       <c r="AF2" t="n">
-        <v>60.8602002767759</v>
+        <v>51.1468395004599</v>
       </c>
       <c r="AG2" t="n">
-        <v>62.3243324166771</v>
+        <v>61.5135462781874</v>
       </c>
       <c r="AH2" t="n">
-        <v>62.7440256608883</v>
+        <v>57.0803674279849</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>68.6169398278219</v>
+        <v>61.3366869626668</v>
       </c>
       <c r="C3" t="n">
-        <v>71.8413248857191</v>
+        <v>68.0307847812453</v>
       </c>
       <c r="D3" t="n">
-        <v>75.0706893959336</v>
+        <v>68.9911143917245</v>
       </c>
       <c r="E3" t="n">
-        <v>74.7121977712402</v>
+        <v>68.5883194138399</v>
       </c>
       <c r="F3" t="n">
-        <v>63.0683237315863</v>
+        <v>58.0970312391386</v>
       </c>
       <c r="G3" t="n">
-        <v>67.6001094021538</v>
+        <v>63.6420909038594</v>
       </c>
       <c r="H3" t="n">
-        <v>70.3209143098674</v>
+        <v>64.8173321713807</v>
       </c>
       <c r="I3" t="n">
-        <v>64.3969631863947</v>
+        <v>50.9813863464835</v>
       </c>
       <c r="J3" t="n">
-        <v>73.079831693641</v>
+        <v>63.2864894150487</v>
       </c>
       <c r="K3" t="n">
-        <v>76.9025216752506</v>
+        <v>69.9474689983569</v>
       </c>
       <c r="L3" t="n">
-        <v>67.372179661658</v>
+        <v>62.7369835922362</v>
       </c>
       <c r="M3" t="n">
-        <v>66.8530343928001</v>
+        <v>59.8176985228311</v>
       </c>
       <c r="N3" t="n">
-        <v>60.2687639474745</v>
+        <v>52.3698069337495</v>
       </c>
       <c r="O3" t="n">
-        <v>67.6606103539761</v>
+        <v>60.2496575604293</v>
       </c>
       <c r="P3" t="n">
-        <v>72.3065656040107</v>
+        <v>64.8317778131564</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.6523440174145</v>
+        <v>63.138062609275</v>
       </c>
       <c r="R3" t="n">
-        <v>65.5715920567543</v>
+        <v>56.7034053970464</v>
       </c>
       <c r="S3" t="n">
-        <v>68.8290629134473</v>
+        <v>61.3364551694597</v>
       </c>
       <c r="T3" t="n">
-        <v>66.6188568312941</v>
+        <v>62.2338093186842</v>
       </c>
       <c r="U3" t="n">
-        <v>70.856187543352</v>
+        <v>68.5167939212033</v>
       </c>
       <c r="V3" t="n">
-        <v>58.3214542618775</v>
+        <v>51.4719121192261</v>
       </c>
       <c r="W3" t="n">
-        <v>65.7590813754151</v>
+        <v>58.2897609373021</v>
       </c>
       <c r="X3" t="n">
-        <v>73.8507062018458</v>
+        <v>68.3176583824782</v>
       </c>
       <c r="Y3" t="n">
-        <v>74.6974561781918</v>
+        <v>66.4127174280522</v>
       </c>
       <c r="Z3" t="n">
-        <v>65.3641716959017</v>
+        <v>62.6508541383869</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.5331663964708</v>
+        <v>63.504435201553</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.626959170663</v>
+        <v>66.2145157734261</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.4720318176071</v>
+        <v>57.3879169122859</v>
       </c>
       <c r="AD3" t="n">
-        <v>68.7761442991164</v>
+        <v>60.4971402386107</v>
       </c>
       <c r="AE3" t="n">
-        <v>69.1354294663915</v>
+        <v>60.9464156566846</v>
       </c>
       <c r="AF3" t="n">
-        <v>57.4889095510125</v>
+        <v>51.1162052020088</v>
       </c>
       <c r="AG3" t="n">
-        <v>62.7177534545268</v>
+        <v>63.137222391112</v>
       </c>
       <c r="AH3" t="n">
-        <v>63.3830619453215</v>
+        <v>59.0554994009349</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>68.0719736812187</v>
+        <v>61.3858388577878</v>
       </c>
       <c r="C4" t="n">
-        <v>70.175396035712</v>
+        <v>67.030768199722</v>
       </c>
       <c r="D4" t="n">
-        <v>74.8111596827869</v>
+        <v>68.7106273867687</v>
       </c>
       <c r="E4" t="n">
-        <v>74.5870181118874</v>
+        <v>69.8759731215743</v>
       </c>
       <c r="F4" t="n">
-        <v>63.4635220302036</v>
+        <v>60.9582068875455</v>
       </c>
       <c r="G4" t="n">
-        <v>66.4188686887101</v>
+        <v>63.668689741052</v>
       </c>
       <c r="H4" t="n">
-        <v>69.4051548008259</v>
+        <v>64.9970545641397</v>
       </c>
       <c r="I4" t="n">
-        <v>62.7049030219484</v>
+        <v>50.7990836165266</v>
       </c>
       <c r="J4" t="n">
-        <v>73.2166693655709</v>
+        <v>61.9762734561442</v>
       </c>
       <c r="K4" t="n">
-        <v>77.7340066849313</v>
+        <v>70.2792387194093</v>
       </c>
       <c r="L4" t="n">
-        <v>65.3693478304951</v>
+        <v>60.9634982593675</v>
       </c>
       <c r="M4" t="n">
-        <v>67.9238057755983</v>
+        <v>60.2115178181114</v>
       </c>
       <c r="N4" t="n">
-        <v>59.8168412740701</v>
+        <v>52.5474795904002</v>
       </c>
       <c r="O4" t="n">
-        <v>65.6019484803959</v>
+        <v>59.648893370501</v>
       </c>
       <c r="P4" t="n">
-        <v>71.7915286618401</v>
+        <v>64.2747769715918</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.6683060753749</v>
+        <v>64.0248138476684</v>
       </c>
       <c r="R4" t="n">
-        <v>63.4961209445151</v>
+        <v>58.0559842489725</v>
       </c>
       <c r="S4" t="n">
-        <v>67.9200459760398</v>
+        <v>60.9660936646538</v>
       </c>
       <c r="T4" t="n">
-        <v>63.5688599262715</v>
+        <v>59.5733599536606</v>
       </c>
       <c r="U4" t="n">
-        <v>70.981363130609</v>
+        <v>68.6196675769952</v>
       </c>
       <c r="V4" t="n">
-        <v>58.6961326678005</v>
+        <v>53.5288005002033</v>
       </c>
       <c r="W4" t="n">
-        <v>65.0312598813931</v>
+        <v>57.0606279152678</v>
       </c>
       <c r="X4" t="n">
-        <v>74.2387127020357</v>
+        <v>68.7393460143875</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.832288046444</v>
+        <v>66.8134755933037</v>
       </c>
       <c r="Z4" t="n">
-        <v>64.6115793221621</v>
+        <v>60.5503595126225</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.7915446554755</v>
+        <v>64.2549090116898</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.5169166579531</v>
+        <v>65.8122194670463</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.1732683851739</v>
+        <v>56.8517362750036</v>
       </c>
       <c r="AD4" t="n">
-        <v>68.1857112588645</v>
+        <v>60.2410950021928</v>
       </c>
       <c r="AE4" t="n">
-        <v>67.6835970130361</v>
+        <v>60.0720423996723</v>
       </c>
       <c r="AF4" t="n">
-        <v>57.3429606221827</v>
+        <v>51.0636241885654</v>
       </c>
       <c r="AG4" t="n">
-        <v>62.6235654654092</v>
+        <v>64.6189106607666</v>
       </c>
       <c r="AH4" t="n">
-        <v>63.156997198315</v>
+        <v>58.1596977454202</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>68.2451475106928</v>
+        <v>61.1054523593748</v>
       </c>
       <c r="C5" t="n">
-        <v>72.5611834142109</v>
+        <v>68.1645139556632</v>
       </c>
       <c r="D5" t="n">
-        <v>74.6540817960783</v>
+        <v>67.9272242145842</v>
       </c>
       <c r="E5" t="n">
-        <v>75.1688450745823</v>
+        <v>69.1372531483077</v>
       </c>
       <c r="F5" t="n">
-        <v>61.413449611871</v>
+        <v>58.1094512104825</v>
       </c>
       <c r="G5" t="n">
-        <v>67.5945107408066</v>
+        <v>63.6474018326247</v>
       </c>
       <c r="H5" t="n">
-        <v>68.1759101167332</v>
+        <v>65.0085848517155</v>
       </c>
       <c r="I5" t="n">
-        <v>64.3927925523739</v>
+        <v>51.4878550121898</v>
       </c>
       <c r="J5" t="n">
-        <v>70.5892293030858</v>
+        <v>61.4499551190067</v>
       </c>
       <c r="K5" t="n">
-        <v>77.7016116834281</v>
+        <v>70.1415448891343</v>
       </c>
       <c r="L5" t="n">
-        <v>67.6460015114063</v>
+        <v>60.818005335279</v>
       </c>
       <c r="M5" t="n">
-        <v>68.2654184423737</v>
+        <v>59.7051825679871</v>
       </c>
       <c r="N5" t="n">
-        <v>58.095296262519</v>
+        <v>53.256546254038</v>
       </c>
       <c r="O5" t="n">
-        <v>64.8922127819116</v>
+        <v>59.0009724800308</v>
       </c>
       <c r="P5" t="n">
-        <v>73.4468069143808</v>
+        <v>64.7826211683939</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.4539941112147</v>
+        <v>63.5555633719747</v>
       </c>
       <c r="R5" t="n">
-        <v>64.6910242280016</v>
+        <v>58.5675707137943</v>
       </c>
       <c r="S5" t="n">
-        <v>68.6957512663851</v>
+        <v>61.2528580030187</v>
       </c>
       <c r="T5" t="n">
-        <v>64.3686777430518</v>
+        <v>60.7858928702882</v>
       </c>
       <c r="U5" t="n">
-        <v>73.3373542107866</v>
+        <v>68.9467956213483</v>
       </c>
       <c r="V5" t="n">
-        <v>59.3841014002693</v>
+        <v>52.4808283244515</v>
       </c>
       <c r="W5" t="n">
-        <v>65.2853561588652</v>
+        <v>57.3867379735308</v>
       </c>
       <c r="X5" t="n">
-        <v>75.5468784101631</v>
+        <v>68.6712210071989</v>
       </c>
       <c r="Y5" t="n">
-        <v>77.9431871285193</v>
+        <v>67.7019263235158</v>
       </c>
       <c r="Z5" t="n">
-        <v>63.2730669922985</v>
+        <v>59.3103792094981</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.0583804502227</v>
+        <v>63.5358727252632</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.2249233240017</v>
+        <v>65.1986612635166</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.8996251411683</v>
+        <v>54.3153032415157</v>
       </c>
       <c r="AD5" t="n">
-        <v>68.7539725154979</v>
+        <v>60.0765968846334</v>
       </c>
       <c r="AE5" t="n">
-        <v>68.7482741005785</v>
+        <v>61.2155609410841</v>
       </c>
       <c r="AF5" t="n">
-        <v>55.9661207929126</v>
+        <v>50.344107624999</v>
       </c>
       <c r="AG5" t="n">
-        <v>65.0192205731439</v>
+        <v>64.1273216531747</v>
       </c>
       <c r="AH5" t="n">
-        <v>63.841315800446</v>
+        <v>57.2469825924522</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>68.014155609101</v>
+        <v>60.9424299453376</v>
       </c>
       <c r="C6" t="n">
-        <v>72.238695288106</v>
+        <v>68.0947579150062</v>
       </c>
       <c r="D6" t="n">
-        <v>74.75405951257</v>
+        <v>67.8187039518711</v>
       </c>
       <c r="E6" t="n">
-        <v>74.6152897986806</v>
+        <v>69.6353136434035</v>
       </c>
       <c r="F6" t="n">
-        <v>60.9031034874811</v>
+        <v>58.3200015904459</v>
       </c>
       <c r="G6" t="n">
-        <v>67.1779515045071</v>
+        <v>63.3462807763143</v>
       </c>
       <c r="H6" t="n">
-        <v>67.8557290008951</v>
+        <v>63.5484457867314</v>
       </c>
       <c r="I6" t="n">
-        <v>64.3880982600049</v>
+        <v>51.4117994696107</v>
       </c>
       <c r="J6" t="n">
-        <v>70.1095012662398</v>
+        <v>61.5986463699119</v>
       </c>
       <c r="K6" t="n">
-        <v>77.8665549936045</v>
+        <v>70.5650708814081</v>
       </c>
       <c r="L6" t="n">
-        <v>66.6526565396778</v>
+        <v>60.8637533392056</v>
       </c>
       <c r="M6" t="n">
-        <v>67.8191009302446</v>
+        <v>60.4390658379446</v>
       </c>
       <c r="N6" t="n">
-        <v>57.6919043460198</v>
+        <v>52.3300121322026</v>
       </c>
       <c r="O6" t="n">
-        <v>64.9636382951368</v>
+        <v>58.7275528609717</v>
       </c>
       <c r="P6" t="n">
-        <v>73.1582394893685</v>
+        <v>64.3224842695149</v>
       </c>
       <c r="Q6" t="n">
-        <v>72.3461234308572</v>
+        <v>62.9718270105501</v>
       </c>
       <c r="R6" t="n">
-        <v>64.6278985211359</v>
+        <v>57.6338740755705</v>
       </c>
       <c r="S6" t="n">
-        <v>67.4981851673957</v>
+        <v>60.221954126975</v>
       </c>
       <c r="T6" t="n">
-        <v>63.9550806355374</v>
+        <v>59.7381456992928</v>
       </c>
       <c r="U6" t="n">
-        <v>73.2301912834983</v>
+        <v>69.7820043069316</v>
       </c>
       <c r="V6" t="n">
-        <v>58.7271696165048</v>
+        <v>52.2774553209904</v>
       </c>
       <c r="W6" t="n">
-        <v>65.1344115894581</v>
+        <v>57.0136732576889</v>
       </c>
       <c r="X6" t="n">
-        <v>75.7446702179335</v>
+        <v>68.883110588545</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.3688649297853</v>
+        <v>67.5981212289192</v>
       </c>
       <c r="Z6" t="n">
-        <v>63.4643364784017</v>
+        <v>58.7999385984328</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.8710835677809</v>
+        <v>62.9164382524317</v>
       </c>
       <c r="AB6" t="n">
-        <v>69.7649496479603</v>
+        <v>64.8454908850997</v>
       </c>
       <c r="AC6" t="n">
-        <v>60.5244247221794</v>
+        <v>53.3590505722816</v>
       </c>
       <c r="AD6" t="n">
-        <v>68.7877400608748</v>
+        <v>59.7560705035677</v>
       </c>
       <c r="AE6" t="n">
-        <v>68.7968730360647</v>
+        <v>61.2238719774617</v>
       </c>
       <c r="AF6" t="n">
-        <v>54.7495080144527</v>
+        <v>50.5298583713693</v>
       </c>
       <c r="AG6" t="n">
-        <v>64.8122139109537</v>
+        <v>64.7247040889939</v>
       </c>
       <c r="AH6" t="n">
-        <v>63.9316959735327</v>
+        <v>57.2429113410023</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>63.6849156289239</v>
+        <v>57.0818763240745</v>
       </c>
       <c r="C7" t="n">
-        <v>70.3395188418352</v>
+        <v>66.1464998414914</v>
       </c>
       <c r="D7" t="n">
-        <v>70.4073802719978</v>
+        <v>63.5874616479625</v>
       </c>
       <c r="E7" t="n">
-        <v>72.1631422052336</v>
+        <v>68.3064331794869</v>
       </c>
       <c r="F7" t="n">
-        <v>55.8490714801374</v>
+        <v>54.1097259542537</v>
       </c>
       <c r="G7" t="n">
-        <v>62.6614483794615</v>
+        <v>58.7859410022882</v>
       </c>
       <c r="H7" t="n">
-        <v>64.8298919494717</v>
+        <v>61.594443502094</v>
       </c>
       <c r="I7" t="n">
-        <v>59.003943392165</v>
+        <v>47.2287821148906</v>
       </c>
       <c r="J7" t="n">
-        <v>64.3890490041914</v>
+        <v>56.9602267625429</v>
       </c>
       <c r="K7" t="n">
-        <v>73.3108041120714</v>
+        <v>65.3756456938545</v>
       </c>
       <c r="L7" t="n">
-        <v>63.5478001143788</v>
+        <v>58.1368403409291</v>
       </c>
       <c r="M7" t="n">
-        <v>63.5210296429775</v>
+        <v>56.7029834836012</v>
       </c>
       <c r="N7" t="n">
-        <v>57.5741714666099</v>
+        <v>50.8892839310963</v>
       </c>
       <c r="O7" t="n">
-        <v>62.5600276129551</v>
+        <v>56.725014713867</v>
       </c>
       <c r="P7" t="n">
-        <v>69.6441909506152</v>
+        <v>61.434136551031</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.3625768676776</v>
+        <v>57.4762785775578</v>
       </c>
       <c r="R7" t="n">
-        <v>60.0994882793713</v>
+        <v>53.8495050391906</v>
       </c>
       <c r="S7" t="n">
-        <v>62.5931292342662</v>
+        <v>57.2249435532263</v>
       </c>
       <c r="T7" t="n">
-        <v>62.5640340356448</v>
+        <v>58.4852749423277</v>
       </c>
       <c r="U7" t="n">
-        <v>70.325293420763</v>
+        <v>67.3204501287545</v>
       </c>
       <c r="V7" t="n">
-        <v>53.8264900712052</v>
+        <v>49.0105606182477</v>
       </c>
       <c r="W7" t="n">
-        <v>61.4067925467542</v>
+        <v>52.0283917811114</v>
       </c>
       <c r="X7" t="n">
-        <v>73.0839285222775</v>
+        <v>67.1297178621218</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.7888661180019</v>
+        <v>64.0212354381882</v>
       </c>
       <c r="Z7" t="n">
-        <v>58.3316980891525</v>
+        <v>54.3136009120771</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.7181057626392</v>
+        <v>60.1815564426604</v>
       </c>
       <c r="AB7" t="n">
-        <v>64.1996681809457</v>
+        <v>59.8317081346655</v>
       </c>
       <c r="AC7" t="n">
-        <v>57.388334143374</v>
+        <v>48.914125419145</v>
       </c>
       <c r="AD7" t="n">
-        <v>64.4612300241141</v>
+        <v>56.8882285239244</v>
       </c>
       <c r="AE7" t="n">
-        <v>63.340422861366</v>
+        <v>54.0410011754488</v>
       </c>
       <c r="AF7" t="n">
-        <v>51.5193300473087</v>
+        <v>47.0970260563771</v>
       </c>
       <c r="AG7" t="n">
-        <v>62.0252641404922</v>
+        <v>61.6823462243578</v>
       </c>
       <c r="AH7" t="n">
-        <v>60.2197687366642</v>
+        <v>54.3034481524165</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,103 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>63.4287180117826</v>
+        <v>57.8065637762044</v>
       </c>
       <c r="C8" t="n">
-        <v>70.7115040708724</v>
+        <v>66.6665478940089</v>
       </c>
       <c r="D8" t="n">
-        <v>71.5598880857893</v>
+        <v>64.7821994435545</v>
       </c>
       <c r="E8" t="n">
-        <v>70.1751985217247</v>
+        <v>67.223282691139</v>
       </c>
       <c r="F8" t="n">
-        <v>56.7567762044295</v>
+        <v>56.4788645467393</v>
       </c>
       <c r="G8" t="n">
-        <v>64.4784130540672</v>
+        <v>62.7170073482579</v>
       </c>
       <c r="H8" t="n">
-        <v>61.6118719654748</v>
+        <v>58.7098730097932</v>
       </c>
       <c r="I8" t="n">
-        <v>57.0957565016648</v>
+        <v>48.3436651193785</v>
       </c>
       <c r="J8" t="n">
-        <v>68.6440344019345</v>
+        <v>60.6613521704521</v>
       </c>
       <c r="K8" t="n">
-        <v>77.0288940357402</v>
+        <v>69.2086485873208</v>
       </c>
       <c r="L8" t="n">
-        <v>63.3821236658093</v>
+        <v>58.8620863313421</v>
       </c>
       <c r="M8" t="n">
-        <v>62.6040562998555</v>
+        <v>56.4451916272293</v>
       </c>
       <c r="N8" t="n">
-        <v>57.2879599625421</v>
+        <v>51.488676454461</v>
       </c>
       <c r="O8" t="n">
-        <v>61.5463742078902</v>
+        <v>56.462204262517</v>
       </c>
       <c r="P8" t="n">
-        <v>70.2395691543517</v>
+        <v>61.1397784362092</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.8375306321695</v>
+        <v>57.922521320099</v>
       </c>
       <c r="R8" t="n">
-        <v>57.0504644093175</v>
+        <v>52.0368934849688</v>
       </c>
       <c r="S8" t="n">
-        <v>60.7280821144143</v>
+        <v>54.9329049883869</v>
       </c>
       <c r="T8" t="n">
-        <v>61.3342794266245</v>
+        <v>58.887063547087</v>
       </c>
       <c r="U8" t="n">
-        <v>70.1655680629891</v>
+        <v>66.6441885467154</v>
       </c>
       <c r="V8" t="n">
-        <v>51.1823507149749</v>
+        <v>47.3320176568898</v>
       </c>
       <c r="W8" t="n">
-        <v>58.1939525806318</v>
+        <v>50.5551940840213</v>
       </c>
       <c r="X8" t="n">
-        <v>71.2901925074797</v>
+        <v>65.9451047042649</v>
       </c>
       <c r="Y8" t="n">
-        <v>73.3630772142665</v>
+        <v>64.6836548337808</v>
       </c>
       <c r="Z8" t="n">
-        <v>59.9557343558804</v>
+        <v>55.7083976571055</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.1291749773678</v>
+        <v>63.0766009381994</v>
       </c>
       <c r="AB8" t="n">
-        <v>64.134408957222</v>
+        <v>61.5199537920121</v>
       </c>
       <c r="AC8" t="n">
-        <v>58.1396002085086</v>
+        <v>52.8469229546851</v>
       </c>
       <c r="AD8" t="n">
-        <v>65.9282115199216</v>
+        <v>58.863121903298</v>
       </c>
       <c r="AE8" t="n">
-        <v>62.5828802129996</v>
+        <v>54.5612660836707</v>
       </c>
       <c r="AF8" t="n">
-        <v>50.8667567441272</v>
+        <v>47.2043784422186</v>
       </c>
       <c r="AG8" t="n">
-        <v>65.1986060441145</v>
+        <v>62.3630417346984</v>
       </c>
       <c r="AH8" t="n">
-        <v>59.4552183355721</v>
+        <v>54.7942092050004</v>
       </c>
     </row>
     <row r="9">
@@ -1282,103 +1282,207 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>66.2322933985472</v>
+        <v>61.9780545680748</v>
       </c>
       <c r="C9" t="n">
-        <v>72.3649791636567</v>
+        <v>69.705596624145</v>
       </c>
       <c r="D9" t="n">
-        <v>73.6217650811686</v>
+        <v>68.1611606656838</v>
       </c>
       <c r="E9" t="n">
-        <v>72.3022718322053</v>
+        <v>68.9165618937237</v>
       </c>
       <c r="F9" t="n">
-        <v>59.4381372939933</v>
+        <v>58.2317420415383</v>
       </c>
       <c r="G9" t="n">
-        <v>65.3375351942383</v>
+        <v>64.8696153922716</v>
       </c>
       <c r="H9" t="n">
-        <v>64.5457044800589</v>
+        <v>62.9395626096983</v>
       </c>
       <c r="I9" t="n">
-        <v>61.8683665924743</v>
+        <v>52.5497675059216</v>
       </c>
       <c r="J9" t="n">
-        <v>68.7913681031303</v>
+        <v>62.9896831884659</v>
       </c>
       <c r="K9" t="n">
-        <v>78.8977825484192</v>
+        <v>72.6267419146399</v>
       </c>
       <c r="L9" t="n">
-        <v>65.9305317894066</v>
+        <v>62.2868691680866</v>
       </c>
       <c r="M9" t="n">
-        <v>66.2995732066322</v>
+        <v>61.0915310383075</v>
       </c>
       <c r="N9" t="n">
-        <v>58.4180098822367</v>
+        <v>54.2584995874884</v>
       </c>
       <c r="O9" t="n">
-        <v>62.3553985695401</v>
+        <v>60.1126774243381</v>
       </c>
       <c r="P9" t="n">
-        <v>71.7806636990037</v>
+        <v>66.2225053899361</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.2218717306584</v>
+        <v>63.132465829382</v>
       </c>
       <c r="R9" t="n">
-        <v>63.8530028058791</v>
+        <v>56.6213306839831</v>
       </c>
       <c r="S9" t="n">
-        <v>64.8622480650991</v>
+        <v>59.05163876876</v>
       </c>
       <c r="T9" t="n">
-        <v>62.4320943470132</v>
+        <v>62.0369474763187</v>
       </c>
       <c r="U9" t="n">
-        <v>71.2840220666173</v>
+        <v>69.378250049118</v>
       </c>
       <c r="V9" t="n">
-        <v>57.3402269862057</v>
+        <v>52.6391862219664</v>
       </c>
       <c r="W9" t="n">
-        <v>63.4941056668973</v>
+        <v>57.1453807940944</v>
       </c>
       <c r="X9" t="n">
-        <v>72.9636473228483</v>
+        <v>70.3965148035894</v>
       </c>
       <c r="Y9" t="n">
-        <v>75.919747932998</v>
+        <v>67.5571541587432</v>
       </c>
       <c r="Z9" t="n">
-        <v>62.1759170048551</v>
+        <v>59.1267118199877</v>
       </c>
       <c r="AA9" t="n">
-        <v>67.7913962860366</v>
+        <v>65.969944771309</v>
       </c>
       <c r="AB9" t="n">
-        <v>65.7240389065595</v>
+        <v>63.998076242742</v>
       </c>
       <c r="AC9" t="n">
-        <v>61.7594361542221</v>
+        <v>57.0271088001691</v>
       </c>
       <c r="AD9" t="n">
-        <v>67.2884294878983</v>
+        <v>61.3994451186643</v>
       </c>
       <c r="AE9" t="n">
-        <v>67.5496580022638</v>
+        <v>60.7484775206056</v>
       </c>
       <c r="AF9" t="n">
-        <v>53.740452820106</v>
+        <v>51.0584597506426</v>
       </c>
       <c r="AG9" t="n">
-        <v>65.4797851932254</v>
+        <v>65.2125491899889</v>
       </c>
       <c r="AH9" t="n">
-        <v>63.2475130875751</v>
+        <v>59.1239115132076</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B10" t="n">
+        <v>63.3527274090892</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71.262031525702</v>
+      </c>
+      <c r="D10" t="n">
+        <v>69.4776274989342</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.0626656810701</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60.5337706008408</v>
+      </c>
+      <c r="G10" t="n">
+        <v>65.7274160716987</v>
+      </c>
+      <c r="H10" t="n">
+        <v>63.2865025811731</v>
+      </c>
+      <c r="I10" t="n">
+        <v>53.7262209790339</v>
+      </c>
+      <c r="J10" t="n">
+        <v>64.6861697787099</v>
+      </c>
+      <c r="K10" t="n">
+        <v>73.8505893535937</v>
+      </c>
+      <c r="L10" t="n">
+        <v>64.2467001039398</v>
+      </c>
+      <c r="M10" t="n">
+        <v>62.9451327507162</v>
+      </c>
+      <c r="N10" t="n">
+        <v>56.7934545298064</v>
+      </c>
+      <c r="O10" t="n">
+        <v>62.2312589740784</v>
+      </c>
+      <c r="P10" t="n">
+        <v>67.4320930925292</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>63.6221607514814</v>
+      </c>
+      <c r="R10" t="n">
+        <v>59.9097951201364</v>
+      </c>
+      <c r="S10" t="n">
+        <v>60.324484466181</v>
+      </c>
+      <c r="T10" t="n">
+        <v>63.7634809321964</v>
+      </c>
+      <c r="U10" t="n">
+        <v>69.0309420057475</v>
+      </c>
+      <c r="V10" t="n">
+        <v>54.6698931187788</v>
+      </c>
+      <c r="W10" t="n">
+        <v>59.5037211305491</v>
+      </c>
+      <c r="X10" t="n">
+        <v>70.2086069914587</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>69.9935103182411</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>61.8221025689367</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>67.6958632344823</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>64.9471923630203</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>58.2350057916182</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>63.1940425162445</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>62.9715950730544</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51.2852654675409</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>67.2790770971367</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>61.0755164563707</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/02_fb.xlsx
+++ b/03_ips_clean/09_data_web/02_fb.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>60.0423132406522</v>
+        <v>60.4864294198874</v>
       </c>
       <c r="C2" t="n">
-        <v>66.8984852323921</v>
+        <v>67.1568783137496</v>
       </c>
       <c r="D2" t="n">
-        <v>68.1882456220035</v>
+        <v>68.8318342352838</v>
       </c>
       <c r="E2" t="n">
-        <v>67.3488214941157</v>
+        <v>67.406763727453</v>
       </c>
       <c r="F2" t="n">
-        <v>58.7922644251535</v>
+        <v>57.7361733918714</v>
       </c>
       <c r="G2" t="n">
-        <v>61.8236690705724</v>
+        <v>62.5720313441088</v>
       </c>
       <c r="H2" t="n">
-        <v>63.7930360929536</v>
+        <v>63.55570793669</v>
       </c>
       <c r="I2" t="n">
-        <v>50.5823001269478</v>
+        <v>50.8917708779967</v>
       </c>
       <c r="J2" t="n">
-        <v>61.3912322112859</v>
+        <v>62.6571813496828</v>
       </c>
       <c r="K2" t="n">
-        <v>68.7446925561847</v>
+        <v>70.4399936283006</v>
       </c>
       <c r="L2" t="n">
-        <v>59.041932367349</v>
+        <v>59.9787929854406</v>
       </c>
       <c r="M2" t="n">
-        <v>59.2389026620247</v>
+        <v>60.0274314305825</v>
       </c>
       <c r="N2" t="n">
-        <v>49.8738035630805</v>
+        <v>51.6501827303864</v>
       </c>
       <c r="O2" t="n">
-        <v>57.4787769982708</v>
+        <v>57.0733807371652</v>
       </c>
       <c r="P2" t="n">
-        <v>64.8723606685754</v>
+        <v>65.2276414728499</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.9765238862722</v>
+        <v>61.1479189845055</v>
       </c>
       <c r="R2" t="n">
-        <v>55.1163824403974</v>
+        <v>54.7093756410066</v>
       </c>
       <c r="S2" t="n">
-        <v>59.3129613529179</v>
+        <v>58.6339176085372</v>
       </c>
       <c r="T2" t="n">
-        <v>60.1336314280145</v>
+        <v>61.6921180591468</v>
       </c>
       <c r="U2" t="n">
-        <v>67.2115408018978</v>
+        <v>68.454971368735</v>
       </c>
       <c r="V2" t="n">
-        <v>50.056400768187</v>
+        <v>50.6860845416907</v>
       </c>
       <c r="W2" t="n">
-        <v>56.7182083151089</v>
+        <v>57.3213952722295</v>
       </c>
       <c r="X2" t="n">
-        <v>67.5159004647643</v>
+        <v>67.6992840023254</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.8525280939973</v>
+        <v>65.1534801097637</v>
       </c>
       <c r="Z2" t="n">
-        <v>61.0698268635395</v>
+        <v>61.1801316283118</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.5167037022075</v>
+        <v>63.396413103279</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.1147316639651</v>
+        <v>64.1223411725866</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.6435432367832</v>
+        <v>55.4101612970142</v>
       </c>
       <c r="AD2" t="n">
-        <v>60.2443816566791</v>
+        <v>60.9812685205693</v>
       </c>
       <c r="AE2" t="n">
-        <v>59.0018442676248</v>
+        <v>58.8956907279334</v>
       </c>
       <c r="AF2" t="n">
-        <v>51.1468395004599</v>
+        <v>51.3131365449178</v>
       </c>
       <c r="AG2" t="n">
-        <v>61.5135462781874</v>
+        <v>59.5326719755994</v>
       </c>
       <c r="AH2" t="n">
-        <v>57.0803674279849</v>
+        <v>57.8322531132196</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>61.3366869626668</v>
+        <v>61.4804121271724</v>
       </c>
       <c r="C3" t="n">
-        <v>68.0307847812453</v>
+        <v>67.7407907125838</v>
       </c>
       <c r="D3" t="n">
-        <v>68.9911143917245</v>
+        <v>69.4314483124677</v>
       </c>
       <c r="E3" t="n">
-        <v>68.5883194138399</v>
+        <v>68.6166983675857</v>
       </c>
       <c r="F3" t="n">
-        <v>58.0970312391386</v>
+        <v>57.0446010614492</v>
       </c>
       <c r="G3" t="n">
-        <v>63.6420909038594</v>
+        <v>63.7452911584358</v>
       </c>
       <c r="H3" t="n">
-        <v>64.8173321713807</v>
+        <v>65.2459566922317</v>
       </c>
       <c r="I3" t="n">
-        <v>50.9813863464835</v>
+        <v>51.3239588246169</v>
       </c>
       <c r="J3" t="n">
-        <v>63.2864894150487</v>
+        <v>62.7028548854887</v>
       </c>
       <c r="K3" t="n">
-        <v>69.9474689983569</v>
+        <v>70.1866548058716</v>
       </c>
       <c r="L3" t="n">
-        <v>62.7369835922362</v>
+        <v>63.2620337251697</v>
       </c>
       <c r="M3" t="n">
-        <v>59.8176985228311</v>
+        <v>60.9182717232735</v>
       </c>
       <c r="N3" t="n">
-        <v>52.3698069337495</v>
+        <v>53.4807048105507</v>
       </c>
       <c r="O3" t="n">
-        <v>60.2496575604293</v>
+        <v>59.6621414221559</v>
       </c>
       <c r="P3" t="n">
-        <v>64.8317778131564</v>
+        <v>65.8081284157702</v>
       </c>
       <c r="Q3" t="n">
-        <v>63.138062609275</v>
+        <v>62.7201860731366</v>
       </c>
       <c r="R3" t="n">
-        <v>56.7034053970464</v>
+        <v>56.6909672722925</v>
       </c>
       <c r="S3" t="n">
-        <v>61.3364551694597</v>
+        <v>60.2221999305213</v>
       </c>
       <c r="T3" t="n">
-        <v>62.2338093186842</v>
+        <v>63.0021982225294</v>
       </c>
       <c r="U3" t="n">
-        <v>68.5167939212033</v>
+        <v>69.1543822164982</v>
       </c>
       <c r="V3" t="n">
-        <v>51.4719121192261</v>
+        <v>51.4929149182547</v>
       </c>
       <c r="W3" t="n">
-        <v>58.2897609373021</v>
+        <v>58.838859147254</v>
       </c>
       <c r="X3" t="n">
-        <v>68.3176583824782</v>
+        <v>67.9607360449486</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.4127174280522</v>
+        <v>66.0840301852281</v>
       </c>
       <c r="Z3" t="n">
-        <v>62.6508541383869</v>
+        <v>63.0643347705988</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.504435201553</v>
+        <v>64.4733761252925</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.2145157734261</v>
+        <v>65.2974134437676</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.3879169122859</v>
+        <v>57.8845720141967</v>
       </c>
       <c r="AD3" t="n">
-        <v>60.4971402386107</v>
+        <v>61.5417921285688</v>
       </c>
       <c r="AE3" t="n">
-        <v>60.9464156566846</v>
+        <v>60.9438780666215</v>
       </c>
       <c r="AF3" t="n">
-        <v>51.1162052020088</v>
+        <v>50.9977544540221</v>
       </c>
       <c r="AG3" t="n">
-        <v>63.137222391112</v>
+        <v>61.0613061316634</v>
       </c>
       <c r="AH3" t="n">
-        <v>59.0554994009349</v>
+        <v>59.2703178810722</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>61.3858388577878</v>
+        <v>61.5482080572371</v>
       </c>
       <c r="C4" t="n">
-        <v>67.030768199722</v>
+        <v>67.5583975143619</v>
       </c>
       <c r="D4" t="n">
-        <v>68.7106273867687</v>
+        <v>69.5112674708194</v>
       </c>
       <c r="E4" t="n">
-        <v>69.8759731215743</v>
+        <v>69.8917504253862</v>
       </c>
       <c r="F4" t="n">
-        <v>60.9582068875455</v>
+        <v>59.9522320447495</v>
       </c>
       <c r="G4" t="n">
-        <v>63.668689741052</v>
+        <v>63.5398807475999</v>
       </c>
       <c r="H4" t="n">
-        <v>64.9970545641397</v>
+        <v>65.7909983578406</v>
       </c>
       <c r="I4" t="n">
-        <v>50.7990836165266</v>
+        <v>51.156931646624</v>
       </c>
       <c r="J4" t="n">
-        <v>61.9762734561442</v>
+        <v>62.8643075685694</v>
       </c>
       <c r="K4" t="n">
-        <v>70.2792387194093</v>
+        <v>70.5375509487158</v>
       </c>
       <c r="L4" t="n">
-        <v>60.9634982593675</v>
+        <v>61.2884420204517</v>
       </c>
       <c r="M4" t="n">
-        <v>60.2115178181114</v>
+        <v>60.341929608416</v>
       </c>
       <c r="N4" t="n">
-        <v>52.5474795904002</v>
+        <v>53.6101828927415</v>
       </c>
       <c r="O4" t="n">
-        <v>59.648893370501</v>
+        <v>58.904800818765</v>
       </c>
       <c r="P4" t="n">
-        <v>64.2747769715918</v>
+        <v>65.3559864293721</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.0248138476684</v>
+        <v>63.6038931524891</v>
       </c>
       <c r="R4" t="n">
-        <v>58.0559842489725</v>
+        <v>58.1024591014704</v>
       </c>
       <c r="S4" t="n">
-        <v>60.9660936646538</v>
+        <v>60.4083756174052</v>
       </c>
       <c r="T4" t="n">
-        <v>59.5733599536606</v>
+        <v>61.2623809768303</v>
       </c>
       <c r="U4" t="n">
-        <v>68.6196675769952</v>
+        <v>69.0266982890138</v>
       </c>
       <c r="V4" t="n">
-        <v>53.5288005002033</v>
+        <v>52.280232446805</v>
       </c>
       <c r="W4" t="n">
-        <v>57.0606279152678</v>
+        <v>57.1735528335174</v>
       </c>
       <c r="X4" t="n">
-        <v>68.7393460143875</v>
+        <v>68.5688006285041</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.8134755933037</v>
+        <v>65.4517967337676</v>
       </c>
       <c r="Z4" t="n">
-        <v>60.5503595126225</v>
+        <v>60.4385402229288</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.2549090116898</v>
+        <v>65.455820478562</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.8122194670463</v>
+        <v>66.0434573320272</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.8517362750036</v>
+        <v>57.2084570027013</v>
       </c>
       <c r="AD4" t="n">
-        <v>60.2410950021928</v>
+        <v>61.625134839096</v>
       </c>
       <c r="AE4" t="n">
-        <v>60.0720423996723</v>
+        <v>60.2521562218695</v>
       </c>
       <c r="AF4" t="n">
-        <v>51.0636241885654</v>
+        <v>50.9069319121354</v>
       </c>
       <c r="AG4" t="n">
-        <v>64.6189106607666</v>
+        <v>61.9640933678689</v>
       </c>
       <c r="AH4" t="n">
-        <v>58.1596977454202</v>
+        <v>58.9726651398399</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>61.1054523593748</v>
+        <v>61.6375508173378</v>
       </c>
       <c r="C5" t="n">
-        <v>68.1645139556632</v>
+        <v>68.7837622409751</v>
       </c>
       <c r="D5" t="n">
-        <v>67.9272242145842</v>
+        <v>68.338797065766</v>
       </c>
       <c r="E5" t="n">
-        <v>69.1372531483077</v>
+        <v>69.5194439055282</v>
       </c>
       <c r="F5" t="n">
-        <v>58.1094512104825</v>
+        <v>57.9780413401213</v>
       </c>
       <c r="G5" t="n">
-        <v>63.6474018326247</v>
+        <v>63.6089806413074</v>
       </c>
       <c r="H5" t="n">
-        <v>65.0085848517155</v>
+        <v>65.8437731821357</v>
       </c>
       <c r="I5" t="n">
-        <v>51.4878550121898</v>
+        <v>51.9003504912221</v>
       </c>
       <c r="J5" t="n">
-        <v>61.4499551190067</v>
+        <v>62.9726869945196</v>
       </c>
       <c r="K5" t="n">
-        <v>70.1415448891343</v>
+        <v>70.049473675808</v>
       </c>
       <c r="L5" t="n">
-        <v>60.818005335279</v>
+        <v>62.3227263351356</v>
       </c>
       <c r="M5" t="n">
-        <v>59.7051825679871</v>
+        <v>60.8170707577696</v>
       </c>
       <c r="N5" t="n">
-        <v>53.256546254038</v>
+        <v>54.6847012031005</v>
       </c>
       <c r="O5" t="n">
-        <v>59.0009724800308</v>
+        <v>58.1860530193026</v>
       </c>
       <c r="P5" t="n">
-        <v>64.7826211683939</v>
+        <v>66.2355326327309</v>
       </c>
       <c r="Q5" t="n">
-        <v>63.5555633719747</v>
+        <v>63.7346478896607</v>
       </c>
       <c r="R5" t="n">
-        <v>58.5675707137943</v>
+        <v>58.9742088393728</v>
       </c>
       <c r="S5" t="n">
-        <v>61.2528580030187</v>
+        <v>60.5674848157796</v>
       </c>
       <c r="T5" t="n">
-        <v>60.7858928702882</v>
+        <v>62.321107911333</v>
       </c>
       <c r="U5" t="n">
-        <v>68.9467956213483</v>
+        <v>69.718526265246</v>
       </c>
       <c r="V5" t="n">
-        <v>52.4808283244515</v>
+        <v>52.2737654008829</v>
       </c>
       <c r="W5" t="n">
-        <v>57.3867379735308</v>
+        <v>57.4516653902173</v>
       </c>
       <c r="X5" t="n">
-        <v>68.6712210071989</v>
+        <v>68.5155240550604</v>
       </c>
       <c r="Y5" t="n">
-        <v>67.7019263235158</v>
+        <v>66.4407255972638</v>
       </c>
       <c r="Z5" t="n">
-        <v>59.3103792094981</v>
+        <v>59.9491498993864</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.5358727252632</v>
+        <v>65.2604048997782</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.1986612635166</v>
+        <v>65.7629752593472</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.3153032415157</v>
+        <v>55.5900345434142</v>
       </c>
       <c r="AD5" t="n">
-        <v>60.0765968846334</v>
+        <v>61.566991170241</v>
       </c>
       <c r="AE5" t="n">
-        <v>61.2155609410841</v>
+        <v>61.778856335703</v>
       </c>
       <c r="AF5" t="n">
-        <v>50.344107624999</v>
+        <v>50.6531951118666</v>
       </c>
       <c r="AG5" t="n">
-        <v>64.1273216531747</v>
+        <v>61.4012583760644</v>
       </c>
       <c r="AH5" t="n">
-        <v>57.2469825924522</v>
+        <v>58.6358274513043</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>60.9424299453376</v>
+        <v>61.5689969618206</v>
       </c>
       <c r="C6" t="n">
-        <v>68.0947579150062</v>
+        <v>68.8956688343761</v>
       </c>
       <c r="D6" t="n">
-        <v>67.8187039518711</v>
+        <v>68.2205383949033</v>
       </c>
       <c r="E6" t="n">
-        <v>69.6353136434035</v>
+        <v>70.1081632632958</v>
       </c>
       <c r="F6" t="n">
-        <v>58.3200015904459</v>
+        <v>58.4524699745121</v>
       </c>
       <c r="G6" t="n">
-        <v>63.3462807763143</v>
+        <v>64.1159399777592</v>
       </c>
       <c r="H6" t="n">
-        <v>63.5484457867314</v>
+        <v>65.7360303134639</v>
       </c>
       <c r="I6" t="n">
-        <v>51.4117994696107</v>
+        <v>51.7943095169525</v>
       </c>
       <c r="J6" t="n">
-        <v>61.5986463699119</v>
+        <v>63.0932436107835</v>
       </c>
       <c r="K6" t="n">
-        <v>70.5650708814081</v>
+        <v>70.8574217807291</v>
       </c>
       <c r="L6" t="n">
-        <v>60.8637533392056</v>
+        <v>62.3498736861077</v>
       </c>
       <c r="M6" t="n">
-        <v>60.4390658379446</v>
+        <v>61.6937436442016</v>
       </c>
       <c r="N6" t="n">
-        <v>52.3300121322026</v>
+        <v>53.7933023275893</v>
       </c>
       <c r="O6" t="n">
-        <v>58.7275528609717</v>
+        <v>57.7109069352543</v>
       </c>
       <c r="P6" t="n">
-        <v>64.3224842695149</v>
+        <v>65.6045394838197</v>
       </c>
       <c r="Q6" t="n">
-        <v>62.9718270105501</v>
+        <v>63.2232032943298</v>
       </c>
       <c r="R6" t="n">
-        <v>57.6338740755705</v>
+        <v>57.4576086571992</v>
       </c>
       <c r="S6" t="n">
-        <v>60.221954126975</v>
+        <v>59.7999955950197</v>
       </c>
       <c r="T6" t="n">
-        <v>59.7381456992928</v>
+        <v>62.1162240064129</v>
       </c>
       <c r="U6" t="n">
-        <v>69.7820043069316</v>
+        <v>70.377222803671</v>
       </c>
       <c r="V6" t="n">
-        <v>52.2774553209904</v>
+        <v>51.2172917486524</v>
       </c>
       <c r="W6" t="n">
-        <v>57.0136732576889</v>
+        <v>57.0356320279152</v>
       </c>
       <c r="X6" t="n">
-        <v>68.883110588545</v>
+        <v>68.798886460225</v>
       </c>
       <c r="Y6" t="n">
-        <v>67.5981212289192</v>
+        <v>65.83272238316</v>
       </c>
       <c r="Z6" t="n">
-        <v>58.7999385984328</v>
+        <v>59.6156919341068</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.9164382524317</v>
+        <v>65.2555090972307</v>
       </c>
       <c r="AB6" t="n">
-        <v>64.8454908850997</v>
+        <v>65.9498704816293</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.3590505722816</v>
+        <v>55.5879190754915</v>
       </c>
       <c r="AD6" t="n">
-        <v>59.7560705035677</v>
+        <v>61.9752714865061</v>
       </c>
       <c r="AE6" t="n">
-        <v>61.2238719774617</v>
+        <v>61.4404955791862</v>
       </c>
       <c r="AF6" t="n">
-        <v>50.5298583713693</v>
+        <v>50.8914104567118</v>
       </c>
       <c r="AG6" t="n">
-        <v>64.7247040889939</v>
+        <v>61.9299871897263</v>
       </c>
       <c r="AH6" t="n">
-        <v>57.2429113410023</v>
+        <v>58.5871400537585</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>57.0818763240745</v>
+        <v>57.1873948196788</v>
       </c>
       <c r="C7" t="n">
-        <v>66.1464998414914</v>
+        <v>66.5921907571729</v>
       </c>
       <c r="D7" t="n">
-        <v>63.5874616479625</v>
+        <v>63.3916297218784</v>
       </c>
       <c r="E7" t="n">
-        <v>68.3064331794869</v>
+        <v>67.2921869556682</v>
       </c>
       <c r="F7" t="n">
-        <v>54.1097259542537</v>
+        <v>54.2585750900155</v>
       </c>
       <c r="G7" t="n">
-        <v>58.7859410022882</v>
+        <v>59.5106526431061</v>
       </c>
       <c r="H7" t="n">
-        <v>61.594443502094</v>
+        <v>63.0587597518963</v>
       </c>
       <c r="I7" t="n">
-        <v>47.2287821148906</v>
+        <v>47.2098805615458</v>
       </c>
       <c r="J7" t="n">
-        <v>56.9602267625429</v>
+        <v>57.866858237592</v>
       </c>
       <c r="K7" t="n">
-        <v>65.3756456938545</v>
+        <v>64.5077328864132</v>
       </c>
       <c r="L7" t="n">
-        <v>58.1368403409291</v>
+        <v>59.1992721286594</v>
       </c>
       <c r="M7" t="n">
-        <v>56.7029834836012</v>
+        <v>57.3325769644632</v>
       </c>
       <c r="N7" t="n">
-        <v>50.8892839310963</v>
+        <v>52.5317779624715</v>
       </c>
       <c r="O7" t="n">
-        <v>56.725014713867</v>
+        <v>55.3674540280585</v>
       </c>
       <c r="P7" t="n">
-        <v>61.434136551031</v>
+        <v>62.1705930021224</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.4762785775578</v>
+        <v>56.6906489003</v>
       </c>
       <c r="R7" t="n">
-        <v>53.8495050391906</v>
+        <v>53.6921559515975</v>
       </c>
       <c r="S7" t="n">
-        <v>57.2249435532263</v>
+        <v>56.0517562267834</v>
       </c>
       <c r="T7" t="n">
-        <v>58.4852749423277</v>
+        <v>60.4351599385222</v>
       </c>
       <c r="U7" t="n">
-        <v>67.3204501287545</v>
+        <v>67.22209384936</v>
       </c>
       <c r="V7" t="n">
-        <v>49.0105606182477</v>
+        <v>48.5109556874792</v>
       </c>
       <c r="W7" t="n">
-        <v>52.0283917811114</v>
+        <v>51.4942204386696</v>
       </c>
       <c r="X7" t="n">
-        <v>67.1297178621218</v>
+        <v>65.6582481209346</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.0212354381882</v>
+        <v>60.8278228359228</v>
       </c>
       <c r="Z7" t="n">
-        <v>54.3136009120771</v>
+        <v>54.7844621077587</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.1815564426604</v>
+        <v>62.4954935220772</v>
       </c>
       <c r="AB7" t="n">
-        <v>59.8317081346655</v>
+        <v>60.6911113084144</v>
       </c>
       <c r="AC7" t="n">
-        <v>48.914125419145</v>
+        <v>49.6661060102605</v>
       </c>
       <c r="AD7" t="n">
-        <v>56.8882285239244</v>
+        <v>58.6277186386429</v>
       </c>
       <c r="AE7" t="n">
-        <v>54.0410011754488</v>
+        <v>54.2767990192114</v>
       </c>
       <c r="AF7" t="n">
-        <v>47.0970260563771</v>
+        <v>47.3617568042878</v>
       </c>
       <c r="AG7" t="n">
-        <v>61.6823462243578</v>
+        <v>58.0141011174427</v>
       </c>
       <c r="AH7" t="n">
-        <v>54.3034481524165</v>
+        <v>55.8358063695996</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,103 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>57.8065637762044</v>
+        <v>57.8161503929087</v>
       </c>
       <c r="C8" t="n">
-        <v>66.6665478940089</v>
+        <v>66.4954904093819</v>
       </c>
       <c r="D8" t="n">
-        <v>64.7821994435545</v>
+        <v>64.6512882093666</v>
       </c>
       <c r="E8" t="n">
-        <v>67.223282691139</v>
+        <v>66.2183274200309</v>
       </c>
       <c r="F8" t="n">
-        <v>56.4788645467393</v>
+        <v>55.5142837927247</v>
       </c>
       <c r="G8" t="n">
-        <v>62.7170073482579</v>
+        <v>62.9082926414791</v>
       </c>
       <c r="H8" t="n">
-        <v>58.7098730097932</v>
+        <v>60.8892329851849</v>
       </c>
       <c r="I8" t="n">
-        <v>48.3436651193785</v>
+        <v>47.2038731528736</v>
       </c>
       <c r="J8" t="n">
-        <v>60.6613521704521</v>
+        <v>62.1370365806064</v>
       </c>
       <c r="K8" t="n">
-        <v>69.2086485873208</v>
+        <v>68.4930909408699</v>
       </c>
       <c r="L8" t="n">
-        <v>58.8620863313421</v>
+        <v>59.493647815706</v>
       </c>
       <c r="M8" t="n">
-        <v>56.4451916272293</v>
+        <v>56.7852038862833</v>
       </c>
       <c r="N8" t="n">
-        <v>51.488676454461</v>
+        <v>53.0313938571223</v>
       </c>
       <c r="O8" t="n">
-        <v>56.462204262517</v>
+        <v>54.7430780835371</v>
       </c>
       <c r="P8" t="n">
-        <v>61.1397784362092</v>
+        <v>62.5334386904864</v>
       </c>
       <c r="Q8" t="n">
-        <v>57.922521320099</v>
+        <v>57.3863447698662</v>
       </c>
       <c r="R8" t="n">
-        <v>52.0368934849688</v>
+        <v>51.8254182934856</v>
       </c>
       <c r="S8" t="n">
-        <v>54.9329049883869</v>
+        <v>54.1744794313294</v>
       </c>
       <c r="T8" t="n">
-        <v>58.887063547087</v>
+        <v>60.5045704545836</v>
       </c>
       <c r="U8" t="n">
-        <v>66.6441885467154</v>
+        <v>65.7832557301273</v>
       </c>
       <c r="V8" t="n">
-        <v>47.3320176568898</v>
+        <v>45.8255274544399</v>
       </c>
       <c r="W8" t="n">
-        <v>50.5551940840213</v>
+        <v>50.2809501399665</v>
       </c>
       <c r="X8" t="n">
-        <v>65.9451047042649</v>
+        <v>65.1892314801107</v>
       </c>
       <c r="Y8" t="n">
-        <v>64.6836548337808</v>
+        <v>61.7908127379031</v>
       </c>
       <c r="Z8" t="n">
-        <v>55.7083976571055</v>
+        <v>55.7847127204059</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.0766009381994</v>
+        <v>64.1827471193518</v>
       </c>
       <c r="AB8" t="n">
-        <v>61.5199537920121</v>
+        <v>62.2293373697894</v>
       </c>
       <c r="AC8" t="n">
-        <v>52.8469229546851</v>
+        <v>54.0108593993175</v>
       </c>
       <c r="AD8" t="n">
-        <v>58.863121903298</v>
+        <v>60.0432456306878</v>
       </c>
       <c r="AE8" t="n">
-        <v>54.5612660836707</v>
+        <v>54.8033689784035</v>
       </c>
       <c r="AF8" t="n">
-        <v>47.2043784422186</v>
+        <v>47.2254672114224</v>
       </c>
       <c r="AG8" t="n">
-        <v>62.3630417346984</v>
+        <v>59.2861431075952</v>
       </c>
       <c r="AH8" t="n">
-        <v>54.7942092050004</v>
+        <v>55.1029177496724</v>
       </c>
     </row>
     <row r="9">
@@ -1282,103 +1282,103 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>61.9780545680748</v>
+        <v>62.3591777712557</v>
       </c>
       <c r="C9" t="n">
-        <v>69.705596624145</v>
+        <v>69.5319266254753</v>
       </c>
       <c r="D9" t="n">
-        <v>68.1611606656838</v>
+        <v>68.4988877398977</v>
       </c>
       <c r="E9" t="n">
-        <v>68.9165618937237</v>
+        <v>68.6937106521223</v>
       </c>
       <c r="F9" t="n">
-        <v>58.2317420415383</v>
+        <v>58.7922813407092</v>
       </c>
       <c r="G9" t="n">
-        <v>64.8696153922716</v>
+        <v>65.1410818130608</v>
       </c>
       <c r="H9" t="n">
-        <v>62.9395626096983</v>
+        <v>65.1829869459887</v>
       </c>
       <c r="I9" t="n">
-        <v>52.5497675059216</v>
+        <v>52.2647550583772</v>
       </c>
       <c r="J9" t="n">
-        <v>62.9896831884659</v>
+        <v>63.9372050908</v>
       </c>
       <c r="K9" t="n">
-        <v>72.6267419146399</v>
+        <v>71.7667229836253</v>
       </c>
       <c r="L9" t="n">
-        <v>62.2868691680866</v>
+        <v>63.2112289223599</v>
       </c>
       <c r="M9" t="n">
-        <v>61.0915310383075</v>
+        <v>61.6429473116188</v>
       </c>
       <c r="N9" t="n">
-        <v>54.2584995874884</v>
+        <v>54.871991189746</v>
       </c>
       <c r="O9" t="n">
-        <v>60.1126774243381</v>
+        <v>59.0313780813687</v>
       </c>
       <c r="P9" t="n">
-        <v>66.2225053899361</v>
+        <v>66.7721584391113</v>
       </c>
       <c r="Q9" t="n">
-        <v>63.132465829382</v>
+        <v>63.7272254911823</v>
       </c>
       <c r="R9" t="n">
-        <v>56.6213306839831</v>
+        <v>57.3762409686208</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05163876876</v>
+        <v>59.4178818692567</v>
       </c>
       <c r="T9" t="n">
-        <v>62.0369474763187</v>
+        <v>64.462979230884</v>
       </c>
       <c r="U9" t="n">
-        <v>69.378250049118</v>
+        <v>68.7466279483482</v>
       </c>
       <c r="V9" t="n">
-        <v>52.6391862219664</v>
+        <v>51.0863628896547</v>
       </c>
       <c r="W9" t="n">
-        <v>57.1453807940944</v>
+        <v>57.5951567244537</v>
       </c>
       <c r="X9" t="n">
-        <v>70.3965148035894</v>
+        <v>69.1322281405167</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.5571541587432</v>
+        <v>65.4313195062531</v>
       </c>
       <c r="Z9" t="n">
-        <v>59.1267118199877</v>
+        <v>59.9348915167705</v>
       </c>
       <c r="AA9" t="n">
-        <v>65.969944771309</v>
+        <v>66.8962348589342</v>
       </c>
       <c r="AB9" t="n">
-        <v>63.998076242742</v>
+        <v>64.6023023811823</v>
       </c>
       <c r="AC9" t="n">
-        <v>57.0271088001691</v>
+        <v>58.308977995251</v>
       </c>
       <c r="AD9" t="n">
-        <v>61.3994451186643</v>
+        <v>63.1097214743732</v>
       </c>
       <c r="AE9" t="n">
-        <v>60.7484775206056</v>
+        <v>61.1431295033183</v>
       </c>
       <c r="AF9" t="n">
-        <v>51.0584597506426</v>
+        <v>52.1947051541708</v>
       </c>
       <c r="AG9" t="n">
-        <v>65.2125491899889</v>
+        <v>62.2615445296221</v>
       </c>
       <c r="AH9" t="n">
-        <v>59.1239115132076</v>
+        <v>60.1127538602746</v>
       </c>
     </row>
     <row r="10">
@@ -1386,103 +1386,207 @@
         <v>2023</v>
       </c>
       <c r="B10" t="n">
-        <v>63.3527274090892</v>
+        <v>63.5983328308289</v>
       </c>
       <c r="C10" t="n">
-        <v>71.262031525702</v>
+        <v>70.9180873705253</v>
       </c>
       <c r="D10" t="n">
-        <v>69.4776274989342</v>
+        <v>70.064329722238</v>
       </c>
       <c r="E10" t="n">
-        <v>71.0626656810701</v>
+        <v>70.8897894914188</v>
       </c>
       <c r="F10" t="n">
-        <v>60.5337706008408</v>
+        <v>61.078128909936</v>
       </c>
       <c r="G10" t="n">
-        <v>65.7274160716987</v>
+        <v>66.4268757622886</v>
       </c>
       <c r="H10" t="n">
-        <v>63.2865025811731</v>
+        <v>66.6235970693223</v>
       </c>
       <c r="I10" t="n">
-        <v>53.7262209790339</v>
+        <v>53.1801135942581</v>
       </c>
       <c r="J10" t="n">
-        <v>64.6861697787099</v>
+        <v>65.5029340178015</v>
       </c>
       <c r="K10" t="n">
-        <v>73.8505893535937</v>
+        <v>73.5837151873083</v>
       </c>
       <c r="L10" t="n">
-        <v>64.2467001039398</v>
+        <v>64.753605592814</v>
       </c>
       <c r="M10" t="n">
-        <v>62.9451327507162</v>
+        <v>63.7816623738608</v>
       </c>
       <c r="N10" t="n">
-        <v>56.7934545298064</v>
+        <v>55.8906413611864</v>
       </c>
       <c r="O10" t="n">
-        <v>62.2312589740784</v>
+        <v>61.0027444855033</v>
       </c>
       <c r="P10" t="n">
-        <v>67.4320930925292</v>
+        <v>68.5441692750561</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.6221607514814</v>
+        <v>63.9402096469349</v>
       </c>
       <c r="R10" t="n">
-        <v>59.9097951201364</v>
+        <v>59.7832321662271</v>
       </c>
       <c r="S10" t="n">
-        <v>60.324484466181</v>
+        <v>60.7333026792391</v>
       </c>
       <c r="T10" t="n">
-        <v>63.7634809321964</v>
+        <v>65.8473701257508</v>
       </c>
       <c r="U10" t="n">
-        <v>69.0309420057475</v>
+        <v>67.9911478425059</v>
       </c>
       <c r="V10" t="n">
-        <v>54.6698931187788</v>
+        <v>55.7526841555504</v>
       </c>
       <c r="W10" t="n">
-        <v>59.5037211305491</v>
+        <v>59.338456071034</v>
       </c>
       <c r="X10" t="n">
-        <v>70.2086069914587</v>
+        <v>69.6746198713483</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.9935103182411</v>
+        <v>65.7042338320433</v>
       </c>
       <c r="Z10" t="n">
-        <v>61.8221025689367</v>
+        <v>61.8943134468835</v>
       </c>
       <c r="AA10" t="n">
-        <v>67.6958632344823</v>
+        <v>68.1935138258891</v>
       </c>
       <c r="AB10" t="n">
-        <v>64.9471923630203</v>
+        <v>65.5618105856052</v>
       </c>
       <c r="AC10" t="n">
-        <v>58.2350057916182</v>
+        <v>59.7074163215756</v>
       </c>
       <c r="AD10" t="n">
-        <v>63.1940425162445</v>
+        <v>64.3576209791726</v>
       </c>
       <c r="AE10" t="n">
-        <v>62.9715950730544</v>
+        <v>63.6110902349627</v>
       </c>
       <c r="AF10" t="n">
-        <v>51.2852654675409</v>
+        <v>52.3818582344285</v>
       </c>
       <c r="AG10" t="n">
-        <v>67.2790770971367</v>
+        <v>61.6672002391608</v>
       </c>
       <c r="AH10" t="n">
-        <v>61.0755164563707</v>
+        <v>61.999083866604</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B11" t="n">
+        <v>63.738735082183</v>
+      </c>
+      <c r="C11" t="n">
+        <v>70.8057930416263</v>
+      </c>
+      <c r="D11" t="n">
+        <v>68.7869700920244</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70.1001789715742</v>
+      </c>
+      <c r="F11" t="n">
+        <v>60.3761623875621</v>
+      </c>
+      <c r="G11" t="n">
+        <v>67.6499073873275</v>
+      </c>
+      <c r="H11" t="n">
+        <v>67.4474107863253</v>
+      </c>
+      <c r="I11" t="n">
+        <v>54.4203804705784</v>
+      </c>
+      <c r="J11" t="n">
+        <v>66.2230861925812</v>
+      </c>
+      <c r="K11" t="n">
+        <v>72.4872218101011</v>
+      </c>
+      <c r="L11" t="n">
+        <v>64.6083364450882</v>
+      </c>
+      <c r="M11" t="n">
+        <v>64.7322594753182</v>
+      </c>
+      <c r="N11" t="n">
+        <v>56.8673828952887</v>
+      </c>
+      <c r="O11" t="n">
+        <v>61.5061027118411</v>
+      </c>
+      <c r="P11" t="n">
+        <v>68.0955208149545</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>63.733293764114</v>
+      </c>
+      <c r="R11" t="n">
+        <v>59.869404073185</v>
+      </c>
+      <c r="S11" t="n">
+        <v>60.7647751497099</v>
+      </c>
+      <c r="T11" t="n">
+        <v>65.3627747551439</v>
+      </c>
+      <c r="U11" t="n">
+        <v>68.6248091698746</v>
+      </c>
+      <c r="V11" t="n">
+        <v>54.6883794468923</v>
+      </c>
+      <c r="W11" t="n">
+        <v>59.8547943629996</v>
+      </c>
+      <c r="X11" t="n">
+        <v>70.0582704953817</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>66.0623843604945</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>62.4158219665909</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>68.3167992531602</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>67.2466160153929</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>60.4632975413675</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>64.2119237913431</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>64.1154159463589</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>53.0662820617744</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>59.6810603113799</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>63.09383794156</v>
       </c>
     </row>
   </sheetData>
